--- a/data/hotels_by_city/Houston/Houston_shard_169.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_169.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55744-d288618-Reviews-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-Days-Inn-By-Wyndham-Dickinson-TX.h987986.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1002 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r570823014-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>55744</t>
+  </si>
+  <si>
+    <t>288618</t>
+  </si>
+  <si>
+    <t>570823014</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r568757377-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>568757377</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Best hotel of the trip</t>
+  </si>
+  <si>
+    <t>I was surprised, very nice room. There was a little noise in the a/c, sounded like leaves or something in fan but not bad, I could have tolerated if it was needed. It was a great temperature so I didn't need it. Bath was great, towels great, everything else was super. Bed was very comfortable. Refrig and Micro. Good internet. Friendly staff. Ok breakfast and only 3 tables but I was the only one there. Had a nice waffle. Would go back anytime. Very fair rate. 25 min. to Galveston Island. Bucky's near for gas and a Sam's Club. Restaurants all around. Only thing it was hard to find. One entrance on the access road past the exit is a small driveway. The sign was a highway sign I didn't see as it was soooo tall. Two other ways in, turn in the McDonalds and go past the restaurant. Also, off the street next to an Arby's is also a drive that isn't marked.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I was surprised, very nice room. There was a little noise in the a/c, sounded like leaves or something in fan but not bad, I could have tolerated if it was needed. It was a great temperature so I didn't need it. Bath was great, towels great, everything else was super. Bed was very comfortable. Refrig and Micro. Good internet. Friendly staff. Ok breakfast and only 3 tables but I was the only one there. Had a nice waffle. Would go back anytime. Very fair rate. 25 min. to Galveston Island. Bucky's near for gas and a Sam's Club. Restaurants all around. Only thing it was hard to find. One entrance on the access road past the exit is a small driveway. The sign was a highway sign I didn't see as it was soooo tall. Two other ways in, turn in the McDonalds and go past the restaurant. Also, off the street next to an Arby's is also a drive that isn't marked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r564744500-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>564744500</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr </t>
+  </si>
+  <si>
+    <t>Stayed 3 years ago. Bad WiFi.STILL...Bad WiFiAlso, consistently overpriced compared to the Super 8. Better hotels in Webster or Kema. Also, after moving to other room, (still bad WiFi) the AC took forever to come on. Clerks said they never got complaints, I reminded them of 3 years ago. Still same issue. But hey, it's close to McD and Taco Bell if that's your thing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r515936596-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>515936596</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r515174341-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>515174341</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>It's okay if you want to save money</t>
+  </si>
+  <si>
+    <t>We stayed here one night before our Carnival cruise out of Galveston. The price was about $107 including taxes &amp; fees, which was a lot cheaper than if we had stayed in Galveston. The location of this hotel is in close proximity to the highway. From the hotel to the cruise ship is about 25 minutes. There is a grocery store across the street and some restaurants nearby. The hotel room was nice and cool. My complaint is the towels. Our towels, which were located on top of the shelf in the bathroom, were covered in strands of hair. The overall cleanliness of the room was...okay for the price. The front desk gets locked up at night and you can only speak to the attendant through the window. There is a coke machine next to the front desk. The breakfast area is very small and is located right next to the front desk. Other cruisers were observed staying at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>We stayed here one night before our Carnival cruise out of Galveston. The price was about $107 including taxes &amp; fees, which was a lot cheaper than if we had stayed in Galveston. The location of this hotel is in close proximity to the highway. From the hotel to the cruise ship is about 25 minutes. There is a grocery store across the street and some restaurants nearby. The hotel room was nice and cool. My complaint is the towels. Our towels, which were located on top of the shelf in the bathroom, were covered in strands of hair. The overall cleanliness of the room was...okay for the price. The front desk gets locked up at night and you can only speak to the attendant through the window. There is a coke machine next to the front desk. The breakfast area is very small and is located right next to the front desk. Other cruisers were observed staying at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r509389632-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>509389632</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Would not recommend, unless absolutely desperate</t>
+  </si>
+  <si>
+    <t>When I arrived at 10 pm, the room was very hot. I turned on the AC, but still was hot for several hours. The light at the sink-counter didn't work. Front office help was rude. Being a Wyndham Platinum member, I asked for a late checkout . . . but the rude ethnically Indian (from India) manager said absolutely No. I said that I've been to many Wyndham motels/hotels, and they always give me a late check out. He said, No, never, being a Platinum member you only get points, no late check out. So, that was that. I'm not coming back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r505166529-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>505166529</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r493541890-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>493541890</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Decent stay.</t>
+  </si>
+  <si>
+    <t>visited this property for vacation, was the perfect distance between Houston and Galveston. Room was clean enough. dirty rag was on the shower bar, toe nails by the bed. HOWEVER,,, you get what you pay for. I would visit again if looking for a deal.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r492875695-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>492875695</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>So awful we left without spending the night!</t>
+  </si>
+  <si>
+    <t>Accidentally reserved a smoking room, which was not the fault of Days Inn (although how the travel app did not make this clear is beyond me).  Unfortunately a non-smoking room was not available (even though the parking lot was empty).  The room reeked, half of the bathroom doorknob was missing so we couldn't close/lock the door, there was stuff growing in the bathroom, the beds appeared to have cost about $5 or be REALLY old, the pool was tiny and the breakfast area was filthy.  We escaped.  It was worth the money to pay for an additional hotel room elsewhere.  Would give a zero rating if I could.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r486489009-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>486489009</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r485467158-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>485467158</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Worst Hotel Ever WARNING!!!!!!!</t>
+  </si>
+  <si>
+    <t>WARNING to all THIS HAS GOTTA BE THE WORST HOTEL WE HAVE STAYED AT IN OUR LIFE. Ruthless frontdesk and some brown fellow Saying things in his language, felt like her was cursing me off. Room was not properly cleaned hair on both beds and not just human hair but dog hair from the looks of it. Bathroom- Don;t get me started. Shower was rusted and mold on ceiling and walls. took a shower in the morning and drain over flowed with water and led to more hair coming out. Called front desk, Some old guy answer RUDE again and we asked is someone can come up , all he said was that " It was your hair or you dropped something in it, so DEAL WITH IT".  Second the TOILET had Hair and yellow urine stains all over. at night i have seen 3 prostitutes coming out of the main office and they where in there for 2 hrs at least. i was outside on the phone. WOULD NEVER EVER RECOMMEND THIS HOTEL TO ANYONE....MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>WARNING to all THIS HAS GOTTA BE THE WORST HOTEL WE HAVE STAYED AT IN OUR LIFE. Ruthless frontdesk and some brown fellow Saying things in his language, felt like her was cursing me off. Room was not properly cleaned hair on both beds and not just human hair but dog hair from the looks of it. Bathroom- Don;t get me started. Shower was rusted and mold on ceiling and walls. took a shower in the morning and drain over flowed with water and led to more hair coming out. Called front desk, Some old guy answer RUDE again and we asked is someone can come up , all he said was that " It was your hair or you dropped something in it, so DEAL WITH IT".  Second the TOILET had Hair and yellow urine stains all over. at night i have seen 3 prostitutes coming out of the main office and they where in there for 2 hrs at least. i was outside on the phone. WOULD NEVER EVER RECOMMEND THIS HOTEL TO ANYONE....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r484739517-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>484739517</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r479995030-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>479995030</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Unexpected getaway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had to have unexpected repairs on the house and needed a place fast. Three rooms were available including a room for handicap person.  The pool was nice, rooms were clean, and they were very accommodating when we had to stay a couple days extra. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r478968896-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>478968896</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r478349715-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>478349715</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r461039990-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>461039990</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needing a bed for the night. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn't have any room in Galveston so we chose to stay here. The place is hidden. Drove through a mcdonalds parking lot to find. Had reservations for 2 rooms. The rooms were fine but not great. Looks like they are still in the process of upgrading. The knobs on the sink were just bolts and our fire detector was missing. The place advertises breakfast but there was one table with 2 chairs for seating and it's right in the entryway as the check in desk. Faculty does have wifi and a small outdoor pool. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r460704173-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>460704173</t>
+  </si>
+  <si>
+    <t>02/17/2017</t>
+  </si>
+  <si>
+    <t>Fantastic stay</t>
+  </si>
+  <si>
+    <t>We are wyndham rewards members, and so far this hotel has been the best wyndham hotel we have stayed at. The front desk was very nice. We stayed in a handicap room and it impressed us, It was much better than any other handicap room we have stayed at elsewhere. The jacuzzi was in a separate room than the bathroom. The bathroom itself had a separate bath tub and shower the rooms were spacious and very clean. I have nothing bad to say about this hotel. It may look a little run down on the outside, but the rooms themselves are superb and the staff was very compliant to our every need. Definitely will stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>We are wyndham rewards members, and so far this hotel has been the best wyndham hotel we have stayed at. The front desk was very nice. We stayed in a handicap room and it impressed us, It was much better than any other handicap room we have stayed at elsewhere. The jacuzzi was in a separate room than the bathroom. The bathroom itself had a separate bath tub and shower the rooms were spacious and very clean. I have nothing bad to say about this hotel. It may look a little run down on the outside, but the rooms themselves are superb and the staff was very compliant to our every need. Definitely will stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r459806796-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>459806796</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Mrs Myers</t>
+  </si>
+  <si>
+    <t>Room was clean but was noisy most all night. Bathroom was small and needed some repair, but we didn't pay a lot so didn't expect much. Breakfast was a total disappointment and there were  only 3 tables in the very small area to sit and eat. No microwave to heat cereal.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r449017619-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>449017619</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>Great location with great prices</t>
+  </si>
+  <si>
+    <t>This Days Inn was one of the BEST we have ever stayed in. The rooms where clean, great location, great parking and the staff were more than eager to serve</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r441641571-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>441641571</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>Unclean and Unresponsive... I went to Dickinson for the Thanksgiving holiday..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We checked in and immediately left again, spending the evening at Dad's. Got back late and noticed the bottom sheet has three stains on it.. They were clean, but the problem was that it grossed us out.  So the next morning on our way out we still asked if they would change the sheets. Sure said and apologetic clerk/manager. They didn't do it. Room was dirty. They did not even leave us coffee for Sunday morning. Photos speak. I have tons. </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r441409515-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>441409515</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>Trying to find a way into the Inn was frustrating and stressful but once we drove around enough and figured out we could best do it by driving through adjacent fast food parking lots, we could relax. The clerk at the desk was friendly, smiling and helpful, not just about the rooms but about the town and area.  I was skeptical we would have a very large room since, for the price we were paying, I was used to getting something barely large enough to fit a bed and dresser in, but our room was a comfortable size with a separate sitting area with couch. The room was a little overpowered with fragrance - either cleaning supplies, air freshener, or both so we left the door open for about 30 minutes after we checked in but better than a musty smell so many places have. In summary, I'd stay there again and recommend it to others wishing to stay in the immediate area.  The price is right, the room was clean, the property is quiet and staff is friendly.  Only the property access sucks.MoreShow less</t>
+  </si>
+  <si>
+    <t>Trying to find a way into the Inn was frustrating and stressful but once we drove around enough and figured out we could best do it by driving through adjacent fast food parking lots, we could relax. The clerk at the desk was friendly, smiling and helpful, not just about the rooms but about the town and area.  I was skeptical we would have a very large room since, for the price we were paying, I was used to getting something barely large enough to fit a bed and dresser in, but our room was a comfortable size with a separate sitting area with couch. The room was a little overpowered with fragrance - either cleaning supplies, air freshener, or both so we left the door open for about 30 minutes after we checked in but better than a musty smell so many places have. In summary, I'd stay there again and recommend it to others wishing to stay in the immediate area.  The price is right, the room was clean, the property is quiet and staff is friendly.  Only the property access sucks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r419848431-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>419848431</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r394485321-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>394485321</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r393286322-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>393286322</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>dirty dirty</t>
+  </si>
+  <si>
+    <t>Food crumbs in dresser drawers. Microwave dirty. Carpet not vacuumed around walls.Empty catsup and food wrappers including ear plugs and swabs around tv dresser stand. Baby roaches around coffee pot. Tub surround not cleaned. Just tub cleaned. Shower curtain not fresh. Swimming pool water green and cloudy. We did not stay the 22nd nite.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r364873788-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>364873788</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Worst ever!!</t>
+  </si>
+  <si>
+    <t>Called the Days Inn in Dickinson to make a reservation. Was told they didn't take reservations and would have to call the website number. Called it. Wanted to reserve a double bed room on ground floor since my husband and I are disabled, and our daughter and grandson would be sharing the room. Told the lady there would be 3 adults and 1 child. She said the doubles were booked but could put me in a king room with a sleeper sofa. I said that was okay, and asked again if that was ground floor. She said yes. I also ordered another room of the same kind. THe other room would have 4 adults but it didn't have to be on ground level. I gave her my email address,even spelled it out for her and gave her my home phone and cell phone numbers. I got confirmation numbers. The 4 adults would not be arriving until later that evening. We get to Days Inn to check in. The man says the room that I ordered was cancelled. He said a man called earlier that day and cancelled the room because he didn't order it and he had gotten an email confirmation on the room. He also said he tried to call my phone number(cell phone) and I gave them the wrong number! He showed me on the computer the info and my number and email was wrong. I told him...Called the Days Inn in Dickinson to make a reservation. Was told they didn't take reservations and would have to call the website number. Called it. Wanted to reserve a double bed room on ground floor since my husband and I are disabled, and our daughter and grandson would be sharing the room. Told the lady there would be 3 adults and 1 child. She said the doubles were booked but could put me in a king room with a sleeper sofa. I said that was okay, and asked again if that was ground floor. She said yes. I also ordered another room of the same kind. THe other room would have 4 adults but it didn't have to be on ground level. I gave her my email address,even spelled it out for her and gave her my home phone and cell phone numbers. I got confirmation numbers. The 4 adults would not be arriving until later that evening. We get to Days Inn to check in. The man says the room that I ordered was cancelled. He said a man called earlier that day and cancelled the room because he didn't order it and he had gotten an email confirmation on the room. He also said he tried to call my phone number(cell phone) and I gave them the wrong number! He showed me on the computer the info and my number and email was wrong. I told him "Do you think I don't know my own email and phone number?" He said he had one on the second floor he could let us stay in and then we could move to the bottom floor the next night. I had no other choice. I asked about the other room and it was confirmed for two nights. One the lower level with two beds. We went to the room with our daughter and 7 year old grandson's help. The "sofa bed" was only a sofa!! We didn't complain. We knew they would only have to stay on the sofa one night because we were going to get the other room the second night. The next morning, I took the key to the desk, and asked about the other room so we could take our things there as we would be gone all day. He gave me a room key on the ground floor. Got to the room and it was a king bed with a sofa again!!!! I went back and asked him if there was a secret to the sofa bed because we didn't have one the night before and this one didn't seem to be one either. He said "NO ROOMS HAVE SOFA BEDS!" So our daughter and son in law were stuck on the couch again. The man also told me I should have called them to make the reservation!!! When I told him I did first and he said they didn't do reservations there, that I had to call the web number,,,,We will never return!!! Bad Bad!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Called the Days Inn in Dickinson to make a reservation. Was told they didn't take reservations and would have to call the website number. Called it. Wanted to reserve a double bed room on ground floor since my husband and I are disabled, and our daughter and grandson would be sharing the room. Told the lady there would be 3 adults and 1 child. She said the doubles were booked but could put me in a king room with a sleeper sofa. I said that was okay, and asked again if that was ground floor. She said yes. I also ordered another room of the same kind. THe other room would have 4 adults but it didn't have to be on ground level. I gave her my email address,even spelled it out for her and gave her my home phone and cell phone numbers. I got confirmation numbers. The 4 adults would not be arriving until later that evening. We get to Days Inn to check in. The man says the room that I ordered was cancelled. He said a man called earlier that day and cancelled the room because he didn't order it and he had gotten an email confirmation on the room. He also said he tried to call my phone number(cell phone) and I gave them the wrong number! He showed me on the computer the info and my number and email was wrong. I told him...Called the Days Inn in Dickinson to make a reservation. Was told they didn't take reservations and would have to call the website number. Called it. Wanted to reserve a double bed room on ground floor since my husband and I are disabled, and our daughter and grandson would be sharing the room. Told the lady there would be 3 adults and 1 child. She said the doubles were booked but could put me in a king room with a sleeper sofa. I said that was okay, and asked again if that was ground floor. She said yes. I also ordered another room of the same kind. THe other room would have 4 adults but it didn't have to be on ground level. I gave her my email address,even spelled it out for her and gave her my home phone and cell phone numbers. I got confirmation numbers. The 4 adults would not be arriving until later that evening. We get to Days Inn to check in. The man says the room that I ordered was cancelled. He said a man called earlier that day and cancelled the room because he didn't order it and he had gotten an email confirmation on the room. He also said he tried to call my phone number(cell phone) and I gave them the wrong number! He showed me on the computer the info and my number and email was wrong. I told him "Do you think I don't know my own email and phone number?" He said he had one on the second floor he could let us stay in and then we could move to the bottom floor the next night. I had no other choice. I asked about the other room and it was confirmed for two nights. One the lower level with two beds. We went to the room with our daughter and 7 year old grandson's help. The "sofa bed" was only a sofa!! We didn't complain. We knew they would only have to stay on the sofa one night because we were going to get the other room the second night. The next morning, I took the key to the desk, and asked about the other room so we could take our things there as we would be gone all day. He gave me a room key on the ground floor. Got to the room and it was a king bed with a sofa again!!!! I went back and asked him if there was a secret to the sofa bed because we didn't have one the night before and this one didn't seem to be one either. He said "NO ROOMS HAVE SOFA BEDS!" So our daughter and son in law were stuck on the couch again. The man also told me I should have called them to make the reservation!!! When I told him I did first and he said they didn't do reservations there, that I had to call the web number,,,,We will never return!!! Bad Bad!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r363916797-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>363916797</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>First time staying at this hotel</t>
+  </si>
+  <si>
+    <t>My room was what I had booked . . . downstairs, smoking king.  The cleaning staff was excellent! We stayed four nights and room was always clean and I had anything I asked for.  Clock did not work, so I walked it up to front desk and was given a new one.  Remote did not work, and made another trip to front desk, he attempted to fix it, but I ended up getting a new one.  The microwave was broke (didn't use it) and the refrigerator froze everything no matter what I put it on (which caused everything to explode).If I was going to be there long term I would have asked them to replace microwave and refrigerator.  Bed was comfortable, and slept through the night peacefully.  No traffic or loud noises.  Great stay. All the staff was accommodating! MoreShow less</t>
+  </si>
+  <si>
+    <t>My room was what I had booked . . . downstairs, smoking king.  The cleaning staff was excellent! We stayed four nights and room was always clean and I had anything I asked for.  Clock did not work, so I walked it up to front desk and was given a new one.  Remote did not work, and made another trip to front desk, he attempted to fix it, but I ended up getting a new one.  The microwave was broke (didn't use it) and the refrigerator froze everything no matter what I put it on (which caused everything to explode).If I was going to be there long term I would have asked them to replace microwave and refrigerator.  Bed was comfortable, and slept through the night peacefully.  No traffic or loud noises.  Great stay. All the staff was accommodating! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r356620880-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>356620880</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r347654446-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>347654446</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Okay but needed remodeling</t>
+  </si>
+  <si>
+    <t>The room we stayed in was okay for an overnight stay and a bed to sleep in.  Tv service was poor but watchable.  Definitely in need of serious upgrading. Also asked for four King rooms for companions we were traveling with and reserved well in advance and only got 2 king rooms. Other rooms were 2 double beds.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r340075455-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>340075455</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r338560384-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>338560384</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>It is okay.</t>
+  </si>
+  <si>
+    <t>Be nice to the receptionist and don't ask for anything extra.  We had to go to a nearby discount store and get scented candles, disinfectant spray, and night lights.  We also covered the dull and small pillows so we couldn't smell the stink. The wi-fi is the worst we have ever had in any hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r331257650-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>331257650</t>
+  </si>
+  <si>
+    <t>12/07/2015</t>
+  </si>
+  <si>
+    <t>Great For The Price</t>
+  </si>
+  <si>
+    <t>We stopped here because it was close by a wedding that we were headed to, last minute decision and the reviews were pretty good.  The room was clean and that's all I really care about when staying in a hotel.  Nothing fancy, but I would stay here again!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r318028872-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>318028872</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the price it's OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was clean didn't smell non smoking. The breakfast was a little weak . was quite. Parking lot entry was a bit weird but was but park was OK . For the room rates it was not bad . Booked online so check in was really simple </t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r307663758-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>307663758</t>
+  </si>
+  <si>
+    <t>09/06/2015</t>
+  </si>
+  <si>
+    <t>Stay Away!!!</t>
+  </si>
+  <si>
+    <t>STAY AWAY!!! Poor customer service. Indian run establishment. Rude workers. Dirty. Requested 2 nonsmoking rooms. Manager sprayed room and presented it as a nonsmokers room but you can smell the stink. Definitely was former smoking room. Requested 2 pillows but Nick Patel, general manager, told me there was enough pillows in the room. Request denied. Bed was itchy, uncomfortable, suspect bed bugs. Breakfast bar is uninviting. Area is shady. Worried about car and safety all night. Stay away. I'm telling you now. Book at another hotel.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r284901041-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>284901041</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Good staff, BAD hotel</t>
+  </si>
+  <si>
+    <t>First the good, the manager was responsive to the issues.  However, it is impossible for one human to cure all the problems.The problems started when we walked into the room, 120.  The smell was musty and just dirty.  Broken toilet seat, tub had enamel peeled off and the carpet was sticky.  Pillows looked comfy, but were below standard.  It was for one night so a bit of fabreeze, wear shoes at all times and our own pillow addition.  Then the drama.  I was jarred awake by a loud noise.  My daughter says it was a gun shot.  Then a few minutes later a ton of banging and a girl just screaming.  I thought she was literally being murdered.  I call the desk and report it (cell was dead).  Then another gun shot.  More screaming and banging.  Later the police arrived and things got quieter.  Manager kicked the offenders out and was there through the whole situation, but it did take quite a bit to motivate.  Not to mention that girl's safety was in serious danger and delays in calling police are not warranted.  I am sure he didn't want the hotel in the paper, bad publicity.  Can't review any other services or property as it was raining so no pool and we fled as soon as it got light out and we were reasonably certain it was safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>First the good, the manager was responsive to the issues.  However, it is impossible for one human to cure all the problems.The problems started when we walked into the room, 120.  The smell was musty and just dirty.  Broken toilet seat, tub had enamel peeled off and the carpet was sticky.  Pillows looked comfy, but were below standard.  It was for one night so a bit of fabreeze, wear shoes at all times and our own pillow addition.  Then the drama.  I was jarred awake by a loud noise.  My daughter says it was a gun shot.  Then a few minutes later a ton of banging and a girl just screaming.  I thought she was literally being murdered.  I call the desk and report it (cell was dead).  Then another gun shot.  More screaming and banging.  Later the police arrived and things got quieter.  Manager kicked the offenders out and was there through the whole situation, but it did take quite a bit to motivate.  Not to mention that girl's safety was in serious danger and delays in calling police are not warranted.  I am sure he didn't want the hotel in the paper, bad publicity.  Can't review any other services or property as it was raining so no pool and we fled as soon as it got light out and we were reasonably certain it was safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r280782194-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>280782194</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r280758571-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>280758571</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r278123680-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>278123680</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r273505445-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>273505445</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>good place to rest before cruising</t>
+  </si>
+  <si>
+    <t>We drive from Oklahoma to Galveston for ship cruise. Usually drive down the day before the cruise and need a place to spend the night. Days Inn is only 20 miles from cruise ships. Rooms are noting fancy but they are clean, quiet, inexpensive and close to several eating places. Works great for what we need.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r241031245-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>241031245</t>
+  </si>
+  <si>
+    <t>11/22/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r229410981-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>229410981</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>Dirty...</t>
+  </si>
+  <si>
+    <t>I would have rated the property three stars (average) but it was a little dirty for our taste. There were stains on the sheets, hair in the bathroom, and a half eaten ice cream in the fridge...</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r222900335-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>222900335</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r220705498-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>220705498</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Needs serious improvement</t>
+  </si>
+  <si>
+    <t>I recently stayed here for one night, so we could get on our cruise ship the next day. This hotel was not worth the $100/night we paid. The only plus about this motel was the proximity to Galveston. The pool was an ugly green color, the room had a funny smell, and there were hairs on the towels in our room when we arrived. I hope no one plans to book this place for longer than one night because I'm not sure I could stand more than one night here.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r217520685-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>217520685</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r216649968-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>216649968</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Got the job done</t>
+  </si>
+  <si>
+    <t>The Galveston hotels wanted $250 or more for a $85 room on a cruise weekend Saturday night so we found this place, which is about 20 or so miles out of Galveston, for $85. The first thing we noticed upon entering the room was the odor of the air freshener or carpet cleaner which was quite overpowering. The seal at the bottom of the door was missing and revealed a 1" gap through which the A/C exited the room, and any insects that wanted to watch free cable could enter. There was a massive hair clog in the tub drain which prevented the stopper from sealing but a few tugs with needle nose pliers remedied the mess (luckily dad was a plumber and hair clogs don't scare me). The bed was comfortable and the TV was a new flat screen; the room was also very quiet, the A/C blew very cold despite the aforementioned gap in the door, and the property is near to numerous fast food options and a supermarket. Bottom line is this place got the job done but I would only recommend it as a last option.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Galveston hotels wanted $250 or more for a $85 room on a cruise weekend Saturday night so we found this place, which is about 20 or so miles out of Galveston, for $85. The first thing we noticed upon entering the room was the odor of the air freshener or carpet cleaner which was quite overpowering. The seal at the bottom of the door was missing and revealed a 1" gap through which the A/C exited the room, and any insects that wanted to watch free cable could enter. There was a massive hair clog in the tub drain which prevented the stopper from sealing but a few tugs with needle nose pliers remedied the mess (luckily dad was a plumber and hair clogs don't scare me). The bed was comfortable and the TV was a new flat screen; the room was also very quiet, the A/C blew very cold despite the aforementioned gap in the door, and the property is near to numerous fast food options and a supermarket. Bottom line is this place got the job done but I would only recommend it as a last option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r215892612-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>215892612</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay.</t>
+  </si>
+  <si>
+    <t>Clean, Quiet, hard to find entrance but had surrounded by restaurants. pool  3-5 foot deep great for kids.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r191057165-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>191057165</t>
+  </si>
+  <si>
+    <t>01/16/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r174382592-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>174382592</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>This place is one of the best value I have been at in along time. The room was nice and clean and lots of room bath room was nice everything was in place good water. The next time I'm in the area I will be staying here.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r170170173-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>170170173</t>
+  </si>
+  <si>
+    <t>07/31/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r167862247-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>167862247</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>enjoyed it .need updated breakfast area. need seated area...</t>
+  </si>
+  <si>
+    <t>enjoyed it .need updated breakfast area. need seated area. need jazcuzi like stated. need pool updated. rooms different from pics. .but it was ok service nice. will go back next year. hope updated is done. we were there july 5-9 20013.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r167775429-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>167775429</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have always stayed at this motel... great location. ...all fast food in walking area... clean room... they were getting new carpet when I was there.... comfy beds.... helpful employees. ...(furniture is kinda outdated. .. n needed new tv flat screen ) fast wifi.. n definitely pool was clean. I would stay at days inn..again n again </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r166962118-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>166962118</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r158535474-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>158535474</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r158018235-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>158018235</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r156309342-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>156309342</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r146181831-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>146181831</t>
+  </si>
+  <si>
+    <t>11/25/2012</t>
+  </si>
+  <si>
+    <t>absolutely horrible experience</t>
+  </si>
+  <si>
+    <t>this motel is a mess.  management less than helpful - - and rude as they could possibly be. nasty sheets - gross bedspread. blood stains on the wall. no extra pillows - are you kidding me?  extra blanket was like sandpaper.  will never visit this facility again. take me off of your email list.  do not care to hear from days inn in the future.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r145723470-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>145723470</t>
+  </si>
+  <si>
+    <t>11/19/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r145253788-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>145253788</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r132916962-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>132916962</t>
+  </si>
+  <si>
+    <t>06/27/2012</t>
+  </si>
+  <si>
+    <t>OK for a quick overnight stay</t>
+  </si>
+  <si>
+    <t>We stayed here for one night while we were in the area, without advance reservations.  
+Our room appeared clean and did not have many noticeable cosmetic flaws.  It was a non-smoking room and did not have any smell.  
+Although we hadn't requested it, we were given a king bed suite, which was nice and roomy with high ceilings and plenty of lighting.
+After we had settled in and prepared to take showers, we could not get the shower to work!  With much pulling and tugging, we finally got the little knob on the tub spout to pull up so that water would come out of the shower head.  But water would come out of the shower head only with lots of water pressure, which we could get only by turning the water all the way to the hottest setting!  In the 100-degree weather, taking showers in scalding-hot water was not appealing, but we did not feel it was worth requesting another room since we had already settled into the room and knew we would be leaving early the next morning.  Also, the tub was very slippery (one of us did slip and fall in it), and there was absolutely nothing to hang onto in there.  
+In addition to the faulty shower, the toilet seat was loose, being attached by only one hinge.  My husband fixed that himself.
+The in-room coffee maker did not have a pot, and there were only...We stayed here for one night while we were in the area, without advance reservations.  Our room appeared clean and did not have many noticeable cosmetic flaws.  It was a non-smoking room and did not have any smell.  Although we hadn't requested it, we were given a king bed suite, which was nice and roomy with high ceilings and plenty of lighting.After we had settled in and prepared to take showers, we could not get the shower to work!  With much pulling and tugging, we finally got the little knob on the tub spout to pull up so that water would come out of the shower head.  But water would come out of the shower head only with lots of water pressure, which we could get only by turning the water all the way to the hottest setting!  In the 100-degree weather, taking showers in scalding-hot water was not appealing, but we did not feel it was worth requesting another room since we had already settled into the room and knew we would be leaving early the next morning.  Also, the tub was very slippery (one of us did slip and fall in it), and there was absolutely nothing to hang onto in there.  In addition to the faulty shower, the toilet seat was loose, being attached by only one hinge.  My husband fixed that himself.The in-room coffee maker did not have a pot, and there were only 2 plastic cups, no hot cups.  I'm not sure how we would have made coffee had we wanted to.The a/c was cold, cold, cold.  And in the scorching-hot weather, having ice cold a/c was a huge plus!  The bed came with 5 rectangular pillows.  The bottom sheet was flat, not fitted, which meant that it kept coming loose.  Other than that, the bed was quite comfortable.  Although the hotel is situated near the intersection of I-45 and 517, both very busy roads, we hardly heard any traffic at all.  I'm sure that running the a/c constantly helped with that.    Before we went to bed, I checked the bedside clock to be sure that the previous renters had not left the alarm set.  The little red alarm light on the LED panel was off, so I assumed that the alarm was off.  The next morning after we were awake, the alarm sounded!  This was not a problem since were already up, but it would have been quite disturbing had we been asleep.  I will know for next time that I should not rely on the red alarm light to show; I should check the actual buttons to see whether an alarm is set or not.  Obviously the red light is burned out in this clock, and it should be replaced.There isn't much of a lobby, but a couple of tables and chairs were set out for the breakfast hours.  Breakfast consisted of coffee (regular only), tea bags (but no hot water), apple and orange juice, waffles (make your own), bagels and cream cheese, muffins, sweet rolls, and cold cereal.  I liked the fact that the muffins and sweet rolls were individually packaged.  Although there was a sign asking guests to refrain from taking breakfast food out of the lobby, we took our breakfast to our room because we did not care for the scent of incense that the hotel staff burned in the office which was connected to the lobby.The hotel is within walking distance of McDonald's, Taco Bell, KFC, and Wendy's.  There are other eateries in the area, as well.Upon checkout, I handed the desk clerk a note with our room number and an explanation of the faulty shower and defective alarm clock.  He actually took the time to read my note, which I hope means that these problems will be taken care of.  All in all, it was not a horrible stay.  If I were to stay at this hotel again, I would definitely check out the shower and make sure that it works properly, before I settled into the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for one night while we were in the area, without advance reservations.  
+Our room appeared clean and did not have many noticeable cosmetic flaws.  It was a non-smoking room and did not have any smell.  
+Although we hadn't requested it, we were given a king bed suite, which was nice and roomy with high ceilings and plenty of lighting.
+After we had settled in and prepared to take showers, we could not get the shower to work!  With much pulling and tugging, we finally got the little knob on the tub spout to pull up so that water would come out of the shower head.  But water would come out of the shower head only with lots of water pressure, which we could get only by turning the water all the way to the hottest setting!  In the 100-degree weather, taking showers in scalding-hot water was not appealing, but we did not feel it was worth requesting another room since we had already settled into the room and knew we would be leaving early the next morning.  Also, the tub was very slippery (one of us did slip and fall in it), and there was absolutely nothing to hang onto in there.  
+In addition to the faulty shower, the toilet seat was loose, being attached by only one hinge.  My husband fixed that himself.
+The in-room coffee maker did not have a pot, and there were only...We stayed here for one night while we were in the area, without advance reservations.  Our room appeared clean and did not have many noticeable cosmetic flaws.  It was a non-smoking room and did not have any smell.  Although we hadn't requested it, we were given a king bed suite, which was nice and roomy with high ceilings and plenty of lighting.After we had settled in and prepared to take showers, we could not get the shower to work!  With much pulling and tugging, we finally got the little knob on the tub spout to pull up so that water would come out of the shower head.  But water would come out of the shower head only with lots of water pressure, which we could get only by turning the water all the way to the hottest setting!  In the 100-degree weather, taking showers in scalding-hot water was not appealing, but we did not feel it was worth requesting another room since we had already settled into the room and knew we would be leaving early the next morning.  Also, the tub was very slippery (one of us did slip and fall in it), and there was absolutely nothing to hang onto in there.  In addition to the faulty shower, the toilet seat was loose, being attached by only one hinge.  My husband fixed that himself.The in-room coffee maker did not have a pot, and there were only 2 plastic cups, no hot cups.  I'm not sure how we would have made coffee had we wanted to.The a/c was cold, cold, cold.  And in the scorching-hot weather, having ice cold a/c was a huge plus!  The bed came with 5 rectangular pillows.  The bottom sheet was flat, not fitted, which meant that it kept coming loose.  Other than that, the bed was quite comfortable.  Although the hotel is situated near the intersection of I-45 and 517, both very busy roads, we hardly heard any traffic at all.  I'm sure that running the a/c constantly helped with that.    Before we went to bed, I checked the bedside clock to be sure that the previous renters had not left the alarm set.  The little red alarm light on the LED panel was off, so I assumed that the alarm was off.  The next morning after we were awake, the alarm sounded!  This was not a problem since were already up, but it would have been quite disturbing had we been asleep.  I will know for next time that I should not rely on the red alarm light to show; I should check the actual buttons to see whether an alarm is set or not.  Obviously the red light is burned out in this clock, and it should be replaced.There isn't much of a lobby, but a couple of tables and chairs were set out for the breakfast hours.  Breakfast consisted of coffee (regular only), tea bags (but no hot water), apple and orange juice, waffles (make your own), bagels and cream cheese, muffins, sweet rolls, and cold cereal.  I liked the fact that the muffins and sweet rolls were individually packaged.  Although there was a sign asking guests to refrain from taking breakfast food out of the lobby, we took our breakfast to our room because we did not care for the scent of incense that the hotel staff burned in the office which was connected to the lobby.The hotel is within walking distance of McDonald's, Taco Bell, KFC, and Wendy's.  There are other eateries in the area, as well.Upon checkout, I handed the desk clerk a note with our room number and an explanation of the faulty shower and defective alarm clock.  He actually took the time to read my note, which I hope means that these problems will be taken care of.  All in all, it was not a horrible stay.  If I were to stay at this hotel again, I would definitely check out the shower and make sure that it works properly, before I settled into the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r127142567-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>127142567</t>
+  </si>
+  <si>
+    <t>04/02/2012</t>
+  </si>
+  <si>
+    <t>Below average</t>
+  </si>
+  <si>
+    <t>the room was average at best, the reason for my low rating was their disinterest and lack of professionalism and commom courtesy. When I checked out early on the morning of my departure 3/18/12, I unknowingly at the time left about $200 in clothes hanging up in my room. I didn't realize this until getting home late that evening. I was really aggravated because I didn't leave Dickindon, TX until 3:30 PM and with a courtesy phone call I could have went back and picked up my clothes. When I called the hotel that night they said that they did have my clothes and I asked them why they didn't call me, my number was on the registration form, their response was noncomittal. I asked the manager since they had my credit card # and address if they would mail my clothes to me, and he said he would and that he would call me when he mailed them.
+I called two days later on 3/20/12 after not hearing from them and the manager said that I would need to send them prepaid postage boxes and then they would mail them and call me when they did, so I went to to the Post office and mailed them two pre paid boxes which they signed for on 3/22/12 at 1:45 PM. After not hearing from them I called back 3/28/12 and the man at the front desk
+said ohh they...the room was average at best, the reason for my low rating was their disinterest and lack of professionalism and commom courtesy. When I checked out early on the morning of my departure 3/18/12, I unknowingly at the time left about $200 in clothes hanging up in my room. I didn't realize this until getting home late that evening. I was really aggravated because I didn't leave Dickindon, TX until 3:30 PM and with a courtesy phone call I could have went back and picked up my clothes. When I called the hotel that night they said that they did have my clothes and I asked them why they didn't call me, my number was on the registration form, their response was noncomittal. I asked the manager since they had my credit card # and address if they would mail my clothes to me, and he said he would and that he would call me when he mailed them.I called two days later on 3/20/12 after not hearing from them and the manager said that I would need to send them prepaid postage boxes and then they would mail them and call me when they did, so I went to to the Post office and mailed them two pre paid boxes which they signed for on 3/22/12 at 1:45 PM. After not hearing from them I called back 3/28/12 and the man at the front desksaid ohh they mailed the clothes on 3/27/12. As of this date on 4/2/12 I have yet to recieve my clothes. Not a Days Inn repeat customer!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>the room was average at best, the reason for my low rating was their disinterest and lack of professionalism and commom courtesy. When I checked out early on the morning of my departure 3/18/12, I unknowingly at the time left about $200 in clothes hanging up in my room. I didn't realize this until getting home late that evening. I was really aggravated because I didn't leave Dickindon, TX until 3:30 PM and with a courtesy phone call I could have went back and picked up my clothes. When I called the hotel that night they said that they did have my clothes and I asked them why they didn't call me, my number was on the registration form, their response was noncomittal. I asked the manager since they had my credit card # and address if they would mail my clothes to me, and he said he would and that he would call me when he mailed them.
+I called two days later on 3/20/12 after not hearing from them and the manager said that I would need to send them prepaid postage boxes and then they would mail them and call me when they did, so I went to to the Post office and mailed them two pre paid boxes which they signed for on 3/22/12 at 1:45 PM. After not hearing from them I called back 3/28/12 and the man at the front desk
+said ohh they...the room was average at best, the reason for my low rating was their disinterest and lack of professionalism and commom courtesy. When I checked out early on the morning of my departure 3/18/12, I unknowingly at the time left about $200 in clothes hanging up in my room. I didn't realize this until getting home late that evening. I was really aggravated because I didn't leave Dickindon, TX until 3:30 PM and with a courtesy phone call I could have went back and picked up my clothes. When I called the hotel that night they said that they did have my clothes and I asked them why they didn't call me, my number was on the registration form, their response was noncomittal. I asked the manager since they had my credit card # and address if they would mail my clothes to me, and he said he would and that he would call me when he mailed them.I called two days later on 3/20/12 after not hearing from them and the manager said that I would need to send them prepaid postage boxes and then they would mail them and call me when they did, so I went to to the Post office and mailed them two pre paid boxes which they signed for on 3/22/12 at 1:45 PM. After not hearing from them I called back 3/28/12 and the man at the front desksaid ohh they mailed the clothes on 3/27/12. As of this date on 4/2/12 I have yet to recieve my clothes. Not a Days Inn repeat customer!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r122329475-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>122329475</t>
+  </si>
+  <si>
+    <t>12/31/2011</t>
+  </si>
+  <si>
+    <t>Value okay just didn't sleep well</t>
+  </si>
+  <si>
+    <t>I'm not a smoker so I don't know about other rooms but the first non-smoking room I was assigned stank of something. I was offered a second non-smoking room but the smell was about the same. I can't describe it. Maybe a musky febreeze scent? It didn't seem to be a moldy smell which I find typical of hotels near the coast.I did get some sleep because the sheets were clean and clean-smelling so it wasn't a total waste of my money.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r76895826-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>76895826</t>
+  </si>
+  <si>
+    <t>08/25/2010</t>
+  </si>
+  <si>
+    <t>Rude Employee;Nice room..</t>
+  </si>
+  <si>
+    <t>I was in town for the weekend visiting my son. I am from Calif. Upon arriving about 9:30ish, the man at the front desk was pretty rude. I asked what my room rate was &amp; he grumbled,I asked if they had wifi, &amp; he grumbled, He asked how many I said 1 but had a friend with me who would not be spending the night. he looked over his glasses at me &amp; asked again. Feedling I was getting nowhere fast I said fine 2. when he gave me the card key he said 2nd floor. However the day before I had called to make sure I had a first floor room. Just a preference I have. he got angry $ asked why I didnt mention that before checking in. He grumbled more &amp; change me to a 1st floor room. Maybe he had a bad night. But I am the customer &amp; felt I was treated poorly. The room was nice. The air worked great. I might stay again if I can know I would not have to deal with that night worker again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I was in town for the weekend visiting my son. I am from Calif. Upon arriving about 9:30ish, the man at the front desk was pretty rude. I asked what my room rate was &amp; he grumbled,I asked if they had wifi, &amp; he grumbled, He asked how many I said 1 but had a friend with me who would not be spending the night. he looked over his glasses at me &amp; asked again. Feedling I was getting nowhere fast I said fine 2. when he gave me the card key he said 2nd floor. However the day before I had called to make sure I had a first floor room. Just a preference I have. he got angry $ asked why I didnt mention that before checking in. He grumbled more &amp; change me to a 1st floor room. Maybe he had a bad night. But I am the customer &amp; felt I was treated poorly. The room was nice. The air worked great. I might stay again if I can know I would not have to deal with that night worker again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r59000427-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>59000427</t>
+  </si>
+  <si>
+    <t>03/19/2010</t>
+  </si>
+  <si>
+    <t>Pretty Good For the Price</t>
+  </si>
+  <si>
+    <t>Days Inn Dickinson is well kept and has very reasonable rates.  
+The place is clean. From the shower to the parking lot, everything was kept up well.  Even the landscaping was tidy.
+The room was spacious and the heat / cooling made the room the perfect temperature for me in minutes.  For being right near the highway and near so many fast food places, it was fairly quiet.
+Bed was firm and comfortable.  They don't chince on the pillows.
+Staff was friendly and permitted our discount.  Staff immediately corrected a problem when our key cards stopped working on the second day.  Staff knew where the good restaurants were.
+The laundry machines were clean and in working order.  We had been on the road for a bit so it was nice to throw a load of laundry in and have more clothes for the rest of the trip.
+The location is good - right off the highway with a handful of fast food places within a 500 foot walk, or a dozen restaurants within a 1 minute drive.  
+The driveway into the hotel is hard to spot among the other businesses.  It is easier to pull into McDonalds then exit their parking lot in the back to get to the hotel than find a street that you can get access to the hotel parking lot.
+They provide a breakfast but basically have no lobby, so grab a coffee and go to...Days Inn Dickinson is well kept and has very reasonable rates.   The place is clean. From the shower to the parking lot, everything was kept up well.  Even the landscaping was tidy. The room was spacious and the heat / cooling made the room the perfect temperature for me in minutes.  For being right near the highway and near so many fast food places, it was fairly quiet. Bed was firm and comfortable.  They don't chince on the pillows. Staff was friendly and permitted our discount.  Staff immediately corrected a problem when our key cards stopped working on the second day.  Staff knew where the good restaurants were. The laundry machines were clean and in working order.  We had been on the road for a bit so it was nice to throw a load of laundry in and have more clothes for the rest of the trip. The location is good - right off the highway with a handful of fast food places within a 500 foot walk, or a dozen restaurants within a 1 minute drive.   The driveway into the hotel is hard to spot among the other businesses.  It is easier to pull into McDonalds then exit their parking lot in the back to get to the hotel than find a street that you can get access to the hotel parking lot. They provide a breakfast but basically have no lobby, so grab a coffee and go to one of the several restaurants near there.  I don't see a good solution for them to fix this other than adding on an addition to their lobby which would raise the rates.   This is not a fancy hotel - but it is a well-kept, clean place to stay.  We decided to stay multiple nights because its quality, rates and closeness to everything we wanted to do in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>Days Inn Dickinson is well kept and has very reasonable rates.  
+The place is clean. From the shower to the parking lot, everything was kept up well.  Even the landscaping was tidy.
+The room was spacious and the heat / cooling made the room the perfect temperature for me in minutes.  For being right near the highway and near so many fast food places, it was fairly quiet.
+Bed was firm and comfortable.  They don't chince on the pillows.
+Staff was friendly and permitted our discount.  Staff immediately corrected a problem when our key cards stopped working on the second day.  Staff knew where the good restaurants were.
+The laundry machines were clean and in working order.  We had been on the road for a bit so it was nice to throw a load of laundry in and have more clothes for the rest of the trip.
+The location is good - right off the highway with a handful of fast food places within a 500 foot walk, or a dozen restaurants within a 1 minute drive.  
+The driveway into the hotel is hard to spot among the other businesses.  It is easier to pull into McDonalds then exit their parking lot in the back to get to the hotel than find a street that you can get access to the hotel parking lot.
+They provide a breakfast but basically have no lobby, so grab a coffee and go to...Days Inn Dickinson is well kept and has very reasonable rates.   The place is clean. From the shower to the parking lot, everything was kept up well.  Even the landscaping was tidy. The room was spacious and the heat / cooling made the room the perfect temperature for me in minutes.  For being right near the highway and near so many fast food places, it was fairly quiet. Bed was firm and comfortable.  They don't chince on the pillows. Staff was friendly and permitted our discount.  Staff immediately corrected a problem when our key cards stopped working on the second day.  Staff knew where the good restaurants were. The laundry machines were clean and in working order.  We had been on the road for a bit so it was nice to throw a load of laundry in and have more clothes for the rest of the trip. The location is good - right off the highway with a handful of fast food places within a 500 foot walk, or a dozen restaurants within a 1 minute drive.   The driveway into the hotel is hard to spot among the other businesses.  It is easier to pull into McDonalds then exit their parking lot in the back to get to the hotel than find a street that you can get access to the hotel parking lot. They provide a breakfast but basically have no lobby, so grab a coffee and go to one of the several restaurants near there.  I don't see a good solution for them to fix this other than adding on an addition to their lobby which would raise the rates.   This is not a fancy hotel - but it is a well-kept, clean place to stay.  We decided to stay multiple nights because its quality, rates and closeness to everything we wanted to do in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r16144837-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>16144837</t>
+  </si>
+  <si>
+    <t>05/17/2008</t>
+  </si>
+  <si>
+    <t>Okay for a night.</t>
+  </si>
+  <si>
+    <t>My boyfriend and I had just left a wedding near the San Luis Pass and it was getting late. Instead of making the long trek back to Houston, we decided to stop midway to get some sleep. Days Inn was right off of the freeway and located conveniently near a Whataburger, so we stopped. The lobby closes at a certain time of night. We booked our evening through a little window, which was kind of creepy. However, when we got into the room, we were pleasantly surprised. It was clean and spacious. We had a large bed, fold-out couch (which was divided from the bedroom with an arched doorway), fridge, and microwave. The bed and pillows were very firm, leaving my body a little sore the next morning. The bathroom was decent and stocked with plenty of towels. The shower curtain had a curved bar to give extra room. It was quiet and very dark while we were sleeping. However, we did get an unexpected wake-up call in the morning, asking if we were going to stay an extra night. It was ten minutes before check-out time (11am)... which made me feel a little as though they were rushing us out of there. We didn't have any breakfast, but I got a glimpse of it on the way out. It wasn't very impressive- a couple of cereals, juice, and coffee. The lobby seems a little worn-down and in need of...My boyfriend and I had just left a wedding near the San Luis Pass and it was getting late. Instead of making the long trek back to Houston, we decided to stop midway to get some sleep. Days Inn was right off of the freeway and located conveniently near a Whataburger, so we stopped. The lobby closes at a certain time of night. We booked our evening through a little window, which was kind of creepy. However, when we got into the room, we were pleasantly surprised. It was clean and spacious. We had a large bed, fold-out couch (which was divided from the bedroom with an arched doorway), fridge, and microwave. The bed and pillows were very firm, leaving my body a little sore the next morning. The bathroom was decent and stocked with plenty of towels. The shower curtain had a curved bar to give extra room. It was quiet and very dark while we were sleeping. However, we did get an unexpected wake-up call in the morning, asking if we were going to stay an extra night. It was ten minutes before check-out time (11am)... which made me feel a little as though they were rushing us out of there. We didn't have any breakfast, but I got a glimpse of it on the way out. It wasn't very impressive- a couple of cereals, juice, and coffee. The lobby seems a little worn-down and in need of some renovation. Overall, it was a decent stay for one evening.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>My boyfriend and I had just left a wedding near the San Luis Pass and it was getting late. Instead of making the long trek back to Houston, we decided to stop midway to get some sleep. Days Inn was right off of the freeway and located conveniently near a Whataburger, so we stopped. The lobby closes at a certain time of night. We booked our evening through a little window, which was kind of creepy. However, when we got into the room, we were pleasantly surprised. It was clean and spacious. We had a large bed, fold-out couch (which was divided from the bedroom with an arched doorway), fridge, and microwave. The bed and pillows were very firm, leaving my body a little sore the next morning. The bathroom was decent and stocked with plenty of towels. The shower curtain had a curved bar to give extra room. It was quiet and very dark while we were sleeping. However, we did get an unexpected wake-up call in the morning, asking if we were going to stay an extra night. It was ten minutes before check-out time (11am)... which made me feel a little as though they were rushing us out of there. We didn't have any breakfast, but I got a glimpse of it on the way out. It wasn't very impressive- a couple of cereals, juice, and coffee. The lobby seems a little worn-down and in need of...My boyfriend and I had just left a wedding near the San Luis Pass and it was getting late. Instead of making the long trek back to Houston, we decided to stop midway to get some sleep. Days Inn was right off of the freeway and located conveniently near a Whataburger, so we stopped. The lobby closes at a certain time of night. We booked our evening through a little window, which was kind of creepy. However, when we got into the room, we were pleasantly surprised. It was clean and spacious. We had a large bed, fold-out couch (which was divided from the bedroom with an arched doorway), fridge, and microwave. The bed and pillows were very firm, leaving my body a little sore the next morning. The bathroom was decent and stocked with plenty of towels. The shower curtain had a curved bar to give extra room. It was quiet and very dark while we were sleeping. However, we did get an unexpected wake-up call in the morning, asking if we were going to stay an extra night. It was ten minutes before check-out time (11am)... which made me feel a little as though they were rushing us out of there. We didn't have any breakfast, but I got a glimpse of it on the way out. It wasn't very impressive- a couple of cereals, juice, and coffee. The lobby seems a little worn-down and in need of some renovation. Overall, it was a decent stay for one evening.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1537,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1569,4004 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>99</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" t="s">
+        <v>119</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" t="s">
+        <v>126</v>
+      </c>
+      <c r="L17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>128</v>
+      </c>
+      <c r="O17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18" t="s">
+        <v>133</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>128</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s">
+        <v>138</v>
+      </c>
+      <c r="L19" t="s">
+        <v>139</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>128</v>
+      </c>
+      <c r="O19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>145</v>
+      </c>
+      <c r="O20" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" t="s">
+        <v>149</v>
+      </c>
+      <c r="L21" t="s">
+        <v>150</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>151</v>
+      </c>
+      <c r="O21" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>153</v>
+      </c>
+      <c r="J22" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>161</v>
+      </c>
+      <c r="O23" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>163</v>
+      </c>
+      <c r="J24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>165</v>
+      </c>
+      <c r="O24" t="s">
+        <v>119</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" t="s">
+        <v>170</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>165</v>
+      </c>
+      <c r="O25" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J26" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" t="s">
+        <v>175</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>176</v>
+      </c>
+      <c r="O26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>179</v>
+      </c>
+      <c r="J27" t="s">
+        <v>180</v>
+      </c>
+      <c r="K27" t="s">
+        <v>181</v>
+      </c>
+      <c r="L27" t="s">
+        <v>182</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>176</v>
+      </c>
+      <c r="O27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>185</v>
+      </c>
+      <c r="J28" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>187</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>189</v>
+      </c>
+      <c r="J29" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" t="s">
+        <v>192</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>193</v>
+      </c>
+      <c r="O29" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>195</v>
+      </c>
+      <c r="J30" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>197</v>
+      </c>
+      <c r="O30" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>199</v>
+      </c>
+      <c r="J31" t="s">
+        <v>200</v>
+      </c>
+      <c r="K31" t="s">
+        <v>201</v>
+      </c>
+      <c r="L31" t="s">
+        <v>202</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>197</v>
+      </c>
+      <c r="O31" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>204</v>
+      </c>
+      <c r="J32" t="s">
+        <v>205</v>
+      </c>
+      <c r="K32" t="s">
+        <v>206</v>
+      </c>
+      <c r="L32" t="s">
+        <v>207</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>208</v>
+      </c>
+      <c r="O32" t="s">
+        <v>89</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>209</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>210</v>
+      </c>
+      <c r="J33" t="s">
+        <v>211</v>
+      </c>
+      <c r="K33" t="s">
+        <v>212</v>
+      </c>
+      <c r="L33" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>214</v>
+      </c>
+      <c r="O33" t="s">
+        <v>119</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>215</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>216</v>
+      </c>
+      <c r="J34" t="s">
+        <v>217</v>
+      </c>
+      <c r="K34" t="s">
+        <v>218</v>
+      </c>
+      <c r="L34" t="s">
+        <v>219</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>220</v>
+      </c>
+      <c r="O34" t="s">
+        <v>119</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>222</v>
+      </c>
+      <c r="J35" t="s">
+        <v>223</v>
+      </c>
+      <c r="K35" t="s">
+        <v>224</v>
+      </c>
+      <c r="L35" t="s">
+        <v>225</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>214</v>
+      </c>
+      <c r="O35" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>228</v>
+      </c>
+      <c r="J36" t="s">
+        <v>229</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>214</v>
+      </c>
+      <c r="O36" t="s">
+        <v>89</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>230</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>231</v>
+      </c>
+      <c r="J37" t="s">
+        <v>229</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>214</v>
+      </c>
+      <c r="O37" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>233</v>
+      </c>
+      <c r="J38" t="s">
+        <v>234</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s"/>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>235</v>
+      </c>
+      <c r="O38" t="s">
+        <v>236</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>237</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>238</v>
+      </c>
+      <c r="J39" t="s">
+        <v>239</v>
+      </c>
+      <c r="K39" t="s">
+        <v>240</v>
+      </c>
+      <c r="L39" t="s">
+        <v>241</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>235</v>
+      </c>
+      <c r="O39" t="s">
+        <v>51</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>243</v>
+      </c>
+      <c r="J40" t="s">
+        <v>244</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>245</v>
+      </c>
+      <c r="O40" t="s">
+        <v>89</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>247</v>
+      </c>
+      <c r="J41" t="s">
+        <v>248</v>
+      </c>
+      <c r="K41" t="s">
+        <v>249</v>
+      </c>
+      <c r="L41" t="s">
+        <v>250</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>251</v>
+      </c>
+      <c r="O41" t="s">
+        <v>89</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>253</v>
+      </c>
+      <c r="J42" t="s">
+        <v>254</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>255</v>
+      </c>
+      <c r="O42" t="s">
+        <v>51</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>256</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>257</v>
+      </c>
+      <c r="J43" t="s">
+        <v>258</v>
+      </c>
+      <c r="K43" t="s">
+        <v>259</v>
+      </c>
+      <c r="L43" t="s">
+        <v>260</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>261</v>
+      </c>
+      <c r="O43" t="s">
+        <v>51</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>263</v>
+      </c>
+      <c r="J44" t="s">
+        <v>264</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>261</v>
+      </c>
+      <c r="O44" t="s">
+        <v>51</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>265</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>266</v>
+      </c>
+      <c r="J45" t="s">
+        <v>267</v>
+      </c>
+      <c r="K45" t="s">
+        <v>268</v>
+      </c>
+      <c r="L45" t="s">
+        <v>269</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>261</v>
+      </c>
+      <c r="O45" t="s">
+        <v>89</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>271</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>272</v>
+      </c>
+      <c r="J46" t="s">
+        <v>273</v>
+      </c>
+      <c r="K46" t="s">
+        <v>274</v>
+      </c>
+      <c r="L46" t="s">
+        <v>275</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>261</v>
+      </c>
+      <c r="O46" t="s">
+        <v>51</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>276</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>277</v>
+      </c>
+      <c r="J47" t="s">
+        <v>278</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>279</v>
+      </c>
+      <c r="O47" t="s">
+        <v>51</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>280</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>281</v>
+      </c>
+      <c r="J48" t="s">
+        <v>282</v>
+      </c>
+      <c r="K48" t="s">
+        <v>283</v>
+      </c>
+      <c r="L48" t="s">
+        <v>284</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>285</v>
+      </c>
+      <c r="O48" t="s">
+        <v>236</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>286</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>287</v>
+      </c>
+      <c r="J49" t="s">
+        <v>288</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>289</v>
+      </c>
+      <c r="O49" t="s">
+        <v>89</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>290</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>291</v>
+      </c>
+      <c r="J50" t="s">
+        <v>292</v>
+      </c>
+      <c r="K50" t="s">
+        <v>293</v>
+      </c>
+      <c r="L50" t="s">
+        <v>294</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>289</v>
+      </c>
+      <c r="O50" t="s">
+        <v>51</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>295</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>296</v>
+      </c>
+      <c r="J51" t="s">
+        <v>292</v>
+      </c>
+      <c r="K51" t="s">
+        <v>297</v>
+      </c>
+      <c r="L51" t="s">
+        <v>298</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>299</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>300</v>
+      </c>
+      <c r="J52" t="s">
+        <v>301</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>289</v>
+      </c>
+      <c r="O52" t="s">
+        <v>51</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>302</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>303</v>
+      </c>
+      <c r="J53" t="s">
+        <v>304</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>305</v>
+      </c>
+      <c r="O53" t="s">
+        <v>51</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>306</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>307</v>
+      </c>
+      <c r="J54" t="s">
+        <v>308</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>305</v>
+      </c>
+      <c r="O54" t="s">
+        <v>236</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>309</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>310</v>
+      </c>
+      <c r="J55" t="s">
+        <v>311</v>
+      </c>
+      <c r="K55" t="s"/>
+      <c r="L55" t="s"/>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>312</v>
+      </c>
+      <c r="O55" t="s">
+        <v>236</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>313</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>314</v>
+      </c>
+      <c r="J56" t="s">
+        <v>315</v>
+      </c>
+      <c r="K56" t="s">
+        <v>316</v>
+      </c>
+      <c r="L56" t="s">
+        <v>317</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>318</v>
+      </c>
+      <c r="O56" t="s">
+        <v>51</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>319</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>320</v>
+      </c>
+      <c r="J57" t="s">
+        <v>321</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>318</v>
+      </c>
+      <c r="O57" t="s">
+        <v>57</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>322</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>323</v>
+      </c>
+      <c r="J58" t="s">
+        <v>324</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>318</v>
+      </c>
+      <c r="O58" t="s">
+        <v>119</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>325</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>326</v>
+      </c>
+      <c r="J59" t="s">
+        <v>327</v>
+      </c>
+      <c r="K59" t="s">
+        <v>328</v>
+      </c>
+      <c r="L59" t="s">
+        <v>329</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>330</v>
+      </c>
+      <c r="O59" t="s">
+        <v>119</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>332</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>333</v>
+      </c>
+      <c r="J60" t="s">
+        <v>334</v>
+      </c>
+      <c r="K60" t="s">
+        <v>335</v>
+      </c>
+      <c r="L60" t="s">
+        <v>336</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>337</v>
+      </c>
+      <c r="O60" t="s">
+        <v>57</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>339</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>340</v>
+      </c>
+      <c r="J61" t="s">
+        <v>341</v>
+      </c>
+      <c r="K61" t="s">
+        <v>342</v>
+      </c>
+      <c r="L61" t="s">
+        <v>343</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>344</v>
+      </c>
+      <c r="O61" t="s">
+        <v>236</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>345</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>346</v>
+      </c>
+      <c r="J62" t="s">
+        <v>347</v>
+      </c>
+      <c r="K62" t="s">
+        <v>348</v>
+      </c>
+      <c r="L62" t="s">
+        <v>349</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>350</v>
+      </c>
+      <c r="O62" t="s">
+        <v>236</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>352</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>353</v>
+      </c>
+      <c r="J63" t="s">
+        <v>354</v>
+      </c>
+      <c r="K63" t="s">
+        <v>355</v>
+      </c>
+      <c r="L63" t="s">
+        <v>356</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>357</v>
+      </c>
+      <c r="O63" t="s">
+        <v>51</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>359</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>360</v>
+      </c>
+      <c r="J64" t="s">
+        <v>361</v>
+      </c>
+      <c r="K64" t="s">
+        <v>362</v>
+      </c>
+      <c r="L64" t="s">
+        <v>363</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>364</v>
+      </c>
+      <c r="O64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_169.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_169.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="595">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,81 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r610713443-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>55744</t>
+  </si>
+  <si>
+    <t>288618</t>
+  </si>
+  <si>
+    <t>610713443</t>
+  </si>
+  <si>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>RUDE Service</t>
+  </si>
+  <si>
+    <t>The man at the front desk was VERY rude at check in and when we asked for an extra blanket later.The smell coming from the room next to ours/above the office was horrible, it was something they were cooking, but stunk the whole stay!  The ice machine was FILTHY!!!   Water pressure in the shower was bad!  Water damage with big bumps that looked as if they were full of water on the ceilings, several light bulbs were burned out in our room.  The internet was useless.  We stayed at this location in August 2017 and had a pleasant stay...FAR from it this year.  This is a good location close to the port of Galveston,  we will not be staying here before our cruises anymore!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The man at the front desk was VERY rude at check in and when we asked for an extra blanket later.The smell coming from the room next to ours/above the office was horrible, it was something they were cooking, but stunk the whole stay!  The ice machine was FILTHY!!!   Water pressure in the shower was bad!  Water damage with big bumps that looked as if they were full of water on the ceilings, several light bulbs were burned out in our room.  The internet was useless.  We stayed at this location in August 2017 and had a pleasant stay...FAR from it this year.  This is a good location close to the port of Galveston,  we will not be staying here before our cruises anymore!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r599916358-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>599916358</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Ok stay</t>
+  </si>
+  <si>
+    <t>Pool was closed. Plugs coming out of the wall. Breakfast area was located inside the lobby where guests were checking in and out. There were only 2 tables to eat at, not adequate enough for guests. Rooms were clean</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r578174047-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>578174047</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Dirty room.  Was refused a cleaner room.  Also wifi did not work.</t>
+  </si>
+  <si>
+    <t>I stayed here four nights.  The night I arrived I was immediately turned off by the cleanliness of the room.  There were stains and streaks of who knows what on the vertical face of the sink area, on the desk and on the shower curtain and in the shelf of the microwave.  There was also a booger on the shower wall --- GROSS.  I went to the front desk and asked for a cleaner room, or for them to clean the room right at that moment.  The man at the front desk got upset and argued with me whether it "had been cleaned" or not.  Well, it had been cleaned, obviously, but not well enough!  He followed me upstairs to the room and we argued about whether or not it was clean.  I ended up saying "whatever, I'll stay here if you won't give me a cleaner room" and he "good, you stay here then.  You stay in the same room".  Not the best customer service.  I eventually accepted my fate and just stayed in the same room the whole time.  It was pretty cheap, so I got what I paid for I guess.  But could have been a little cleaner.  If I were you, I would STAY AWAY.Oh and I forgot to mention.  The wifi never worked for me, my entire stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>I stayed here four nights.  The night I arrived I was immediately turned off by the cleanliness of the room.  There were stains and streaks of who knows what on the vertical face of the sink area, on the desk and on the shower curtain and in the shelf of the microwave.  There was also a booger on the shower wall --- GROSS.  I went to the front desk and asked for a cleaner room, or for them to clean the room right at that moment.  The man at the front desk got upset and argued with me whether it "had been cleaned" or not.  Well, it had been cleaned, obviously, but not well enough!  He followed me upstairs to the room and we argued about whether or not it was clean.  I ended up saying "whatever, I'll stay here if you won't give me a cleaner room" and he "good, you stay here then.  You stay in the same room".  Not the best customer service.  I eventually accepted my fate and just stayed in the same room the whole time.  It was pretty cheap, so I got what I paid for I guess.  But could have been a little cleaner.  If I were you, I would STAY AWAY.Oh and I forgot to mention.  The wifi never worked for me, my entire stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r570823014-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
-    <t>55744</t>
-  </si>
-  <si>
-    <t>288618</t>
-  </si>
-  <si>
     <t>570823014</t>
   </si>
   <si>
@@ -171,9 +234,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r568757377-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -210,6 +270,45 @@
     <t>Stayed 3 years ago. Bad WiFi.STILL...Bad WiFiAlso, consistently overpriced compared to the Super 8. Better hotels in Webster or Kema. Also, after moving to other room, (still bad WiFi) the AC took forever to come on. Clerks said they never got complaints, I reminded them of 3 years ago. Still same issue. But hey, it's close to McD and Taco Bell if that's your thing.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r560038833-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>560038833</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurricane Harvey still evident </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We booked this location because we have appointments in the area. We know this location was severely damaged by Harvey Hurricane (yes, I gave the storm a 1st &amp; last name) because our home was invaded at the same time. We now live 2hrs away. The lack of restoration shows on the toilet paper holder, it was never changed during the restoration. However, the sheet rock was replaced, textured and painted. The evidence is on the shower &amp; window curtains, lighting fixtures and the door frame(shoddy trim work)We will never stay here again. We will choose another motel chain. </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r528740953-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>528740953</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>No vacany, no show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I reserved a room online for my husband so he wouldn’t have an over hour drive home after a late night gig. When he arrived the hotel said no vacancy and nobody answered or opened the door for him to check in. End result was he had to drive home anyways and we paid for a night to stay when no one was there to even let him in. When he called the number the man who answered had loud background noise and you could not understand him. All around we will not be using Days Inn ever again. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r515936596-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -258,6 +357,24 @@
     <t>When I arrived at 10 pm, the room was very hot. I turned on the AC, but still was hot for several hours. The light at the sink-counter didn't work. Front office help was rude. Being a Wyndham Platinum member, I asked for a late checkout . . . but the rude ethnically Indian (from India) manager said absolutely No. I said that I've been to many Wyndham motels/hotels, and they always give me a late check out. He said, No, never, being a Platinum member you only get points, no late check out. So, that was that. I'm not coming back.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r507217872-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>507217872</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r505522801-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>505522801</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r505166529-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -285,9 +402,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r492875695-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -303,6 +417,42 @@
     <t>Accidentally reserved a smoking room, which was not the fault of Days Inn (although how the travel app did not make this clear is beyond me).  Unfortunately a non-smoking room was not available (even though the parking lot was empty).  The room reeked, half of the bathroom doorknob was missing so we couldn't close/lock the door, there was stuff growing in the bathroom, the beds appeared to have cost about $5 or be REALLY old, the pool was tiny and the breakfast area was filthy.  We escaped.  It was worth the money to pay for an additional hotel room elsewhere.  Would give a zero rating if I could.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r491619146-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>491619146</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>Manager is rude, wanted to argue instead of try to resolve issue with smoking vs non smoking rooms</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r489413118-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>489413118</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>Unclean/stay up all night itching hotel</t>
+  </si>
+  <si>
+    <t>Couldn't understand person at desk.. Room dirty, bed sunk into the middle, stayed up all night itching possible bedbugs or the soap they used, people crying and yelling all night..left early.,will not return.,</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r486489009-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -315,9 +465,6 @@
     <t>MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>More</t>
   </si>
   <si>
@@ -351,6 +498,30 @@
     <t>05/16/2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r483656722-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>483656722</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r480954195-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>480954195</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Rude management</t>
+  </si>
+  <si>
+    <t>The place was decent however I work nights on my trip so when room service cane early I declined. I politely called at noon asked for room service because we didn't get any the day before. The manager shows up knocking at door practically yelling at me that was I the one who declined earlier. I let him know if it was a problem to just give me towels. He then let the cleaning lady clean. But I don't pay to get reprimanded like a child . Will not stay again .</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r479995030-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -375,9 +546,6 @@
     <t>04/25/2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r478349715-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -387,6 +555,36 @@
     <t>04/23/2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r476237584-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>476237584</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Pure Relaxation</t>
+  </si>
+  <si>
+    <t>Stayed here once and was so pleased that I stayed here again the following week;  while on a business trip instead of driving all the way to Galveston's Days Inn</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r475037514-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>475037514</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Stay for family funeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were there for family funeral, we had some family meet at our room before funeral.  Some were arriving early and had no place to go till funeral started. They complained that we were hanging out in front of our room. That we blocked walkway. There were barely any guest and the one or two that were there, if they came by we moved out of the way. My husband has a broken foot and our great Aunt could not stand so we used a couple of there chairs outside our door and the complained that we had them outside.  Just felt that was a bit insensative.  </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r461039990-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -438,6 +636,39 @@
     <t>Room was clean but was noisy most all night. Bathroom was small and needed some repair, but we didn't pay a lot so didn't expect much. Breakfast was a total disappointment and there were  only 3 tables in the very small area to sit and eat. No microwave to heat cereal.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r456375225-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>456375225</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Ok at best</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is difficult to find, parking lot is small and not good for bigger trucks. Breakfast/lobby area is tiny with very little seating. If you were to sit you would be right in the way of others trying to get some of the minimal breakfast offered and then they tell you not to take anything out of the breakfast area. Shower head sprayed water everywhere if you tried to adjust it. Bottom of the bathtub was peeling like it had been painted. I booked 4 rooms for my employees and myself for 3 nights but that will be the last 3 nights we stay here. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r450310011-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>450310011</t>
+  </si>
+  <si>
+    <t>01/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed one night on our way to Galveston.  Room was comfortable and clean. Front staff was friendly. Breakfast was just ok. Used rewards and got a great rate. Close to different restaurants and a CVS for emergency needs. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r449017619-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -492,6 +723,33 @@
     <t>Trying to find a way into the Inn was frustrating and stressful but once we drove around enough and figured out we could best do it by driving through adjacent fast food parking lots, we could relax. The clerk at the desk was friendly, smiling and helpful, not just about the rooms but about the town and area.  I was skeptical we would have a very large room since, for the price we were paying, I was used to getting something barely large enough to fit a bed and dresser in, but our room was a comfortable size with a separate sitting area with couch. The room was a little overpowered with fragrance - either cleaning supplies, air freshener, or both so we left the door open for about 30 minutes after we checked in but better than a musty smell so many places have. In summary, I'd stay there again and recommend it to others wishing to stay in the immediate area.  The price is right, the room was clean, the property is quiet and staff is friendly.  Only the property access sucks.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r433643653-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>433643653</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Really nice</t>
+  </si>
+  <si>
+    <t>Remodeled, clean room bed comfyPleasantly surprised considering the other days inn I've stayed at</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r429818931-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>429818931</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r419848431-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -531,6 +789,39 @@
     <t>Food crumbs in dresser drawers. Microwave dirty. Carpet not vacuumed around walls.Empty catsup and food wrappers including ear plugs and swabs around tv dresser stand. Baby roaches around coffee pot. Tub surround not cleaned. Just tub cleaned. Shower curtain not fresh. Swimming pool water green and cloudy. We did not stay the 22nd nite.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r378419286-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>378419286</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r371606472-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>371606472</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Very nice rooms</t>
+  </si>
+  <si>
+    <t>This hotel was very clean...the beds were very clean as well..I really enjoyed my three day stay..the people are from India and very nice...I would recommend the hotel....the have breakfast but if you don't like it McDonalds is right there walking distance...the rooms are very cool , air conditioner works good...</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r364873788-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -582,6 +873,39 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r353638222-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>353638222</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>NASTY!!!!!!!! BED BUGS!!!!</t>
+  </si>
+  <si>
+    <t>The bed sheets had stains &amp; bed bugs just disgusting. everything else was ok. But the bed they gave us first was nasty. they move us to another room who knows if they even fixed the problem they had in there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r350703392-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>350703392</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Awesome place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My stay was warm and comfortable convient area for  shopping and eating. Hospitality was awesome!  I would go again. And recommend this one to a friend </t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r347654446-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -597,9 +921,6 @@
     <t>The room we stayed in was okay for an overnight stay and a bed to sleep in.  Tv service was poor but watchable.  Definitely in need of serious upgrading. Also asked for four King rooms for companions we were traveling with and reserved well in advance and only got 2 king rooms. Other rooms were 2 double beds.</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r340075455-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -609,9 +930,6 @@
     <t>01/14/2016</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r338560384-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -627,6 +945,36 @@
     <t>Be nice to the receptionist and don't ask for anything extra.  We had to go to a nearby discount store and get scented candles, disinfectant spray, and night lights.  We also covered the dull and small pillows so we couldn't smell the stink. The wi-fi is the worst we have ever had in any hotel.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r337570876-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>337570876</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Piss Poor Management</t>
+  </si>
+  <si>
+    <t>I booked a non-smoking room through Booking.com. Within minutes of booking, I called Days Inn to make sure that it was a so and I was told it was a smoking room. I explained that it was advertised as a non-smoking room and I could not stay in it because of health reasons. The manager told me that he would cancel it and I would not be charged for it. Then, a few days ago, I found that I was charged for the room. Days Inn said the manager had amnesia and couldn't recall the conversation. So, Days Inn wouldn't refund my money and neither would Booking.com. I will never stay in another Days Inn until this is rectified nor will I ever use Booking.com ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I booked a non-smoking room through Booking.com. Within minutes of booking, I called Days Inn to make sure that it was a so and I was told it was a smoking room. I explained that it was advertised as a non-smoking room and I could not stay in it because of health reasons. The manager told me that he would cancel it and I would not be charged for it. Then, a few days ago, I found that I was charged for the room. Days Inn said the manager had amnesia and couldn't recall the conversation. So, Days Inn wouldn't refund my money and neither would Booking.com. I will never stay in another Days Inn until this is rectified nor will I ever use Booking.com ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r335779648-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>335779648</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r331257650-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -642,9 +990,6 @@
     <t>We stopped here because it was close by a wedding that we were headed to, last minute decision and the reviews were pretty good.  The room was clean and that's all I really care about when staying in a hotel.  Nothing fancy, but I would stay here again!</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r318028872-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -681,6 +1026,45 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r302938129-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>302938129</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Beach Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room I had was not very clean.  You could feel dirt on the floor when barefooted.  The sheets did not smell very clean either.  </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r291242507-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>291242507</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>less than satisfactory</t>
+  </si>
+  <si>
+    <t>room smelled like someone was smoking in it prior to our arrival. One of the ash trays in the room wasn't cleaned out. There was an ash tray just outside our window full and a chewing tobacco canister right next to it. No fitted sheet, flat sheet was used in place of fitted on the bed. Asked Saturday if we could switch rooms and there were none available, we should have asked Friday. Didn't like how the bathroom fan was on the same light switch as the bathroom light. Toilet seat felt lose when you sit on it it moved.  I guess the only way it could've been worse is if there were bugs in the room. Bad impression of days inn MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>room smelled like someone was smoking in it prior to our arrival. One of the ash trays in the room wasn't cleaned out. There was an ash tray just outside our window full and a chewing tobacco canister right next to it. No fitted sheet, flat sheet was used in place of fitted on the bed. Asked Saturday if we could switch rooms and there were none available, we should have asked Friday. Didn't like how the bathroom fan was on the same light switch as the bathroom light. Toilet seat felt lose when you sit on it it moved.  I guess the only way it could've been worse is if there were bugs in the room. Bad impression of days inn More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r284901041-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -714,6 +1098,42 @@
     <t>280758571</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r280001281-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>280001281</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Will stay here again</t>
+  </si>
+  <si>
+    <t>This hotel was only a 5 or 10 minute drive to the Big League Dreams field where we tried to play this weekend (got rained out). This hotel had a good price, so I wasn't sure what we would find, but the reviews were good. We were pleasantly surprised. It's not a four star hotel but doesn't claim to be. Our nonsmoking room truly smelled nonsmoking. It had fresh paint and updated furnishings and new carpet. It also had a good sized flat screen tv and free wifi in the room. I've stayed at a 4 star hotel that didn't have free wifi in the rooms. It had a good size refrigerator and a microwave. The breakfast was fine ... Especially for free. We had Texas shaped waffles, pastries, bagels, coffe and juice ... Oh, and cereal. The front desk was kind and helpful and went out of their way to give us good service. We will definitely be staying here again if we play at that at those fields ... Which I hope we finally get to do one day.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was only a 5 or 10 minute drive to the Big League Dreams field where we tried to play this weekend (got rained out). This hotel had a good price, so I wasn't sure what we would find, but the reviews were good. We were pleasantly surprised. It's not a four star hotel but doesn't claim to be. Our nonsmoking room truly smelled nonsmoking. It had fresh paint and updated furnishings and new carpet. It also had a good sized flat screen tv and free wifi in the room. I've stayed at a 4 star hotel that didn't have free wifi in the rooms. It had a good size refrigerator and a microwave. The breakfast was fine ... Especially for free. We had Texas shaped waffles, pastries, bagels, coffe and juice ... Oh, and cereal. The front desk was kind and helpful and went out of their way to give us good service. We will definitely be staying here again if we play at that at those fields ... Which I hope we finally get to do one day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r279110473-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>279110473</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>No hospitality!</t>
+  </si>
+  <si>
+    <t>I first I sent my boyfriend to the front desk to get a few more pillows and an extra blanket . There were 5 pillows on the bed that look fluffy but that's it when you lay your head on them you sink straight through. They told my boyfriend they didn't have any so I called up there from the room and preceded to tell me that we had plenty of pillows and we couldn't get anymore nor could I get an extra blanket . I have never been treated like that at any hotel I have been to. I was completely furious !!!! The only thing good about this hotel was the room size. They painted over the tub and the pain peeled regardless if I took a shower or a bath ... No telling what kind of germs where bidding under the paint peelings from others... MoreShow less</t>
+  </si>
+  <si>
+    <t>I first I sent my boyfriend to the front desk to get a few more pillows and an extra blanket . There were 5 pillows on the bed that look fluffy but that's it when you lay your head on them you sink straight through. They told my boyfriend they didn't have any so I called up there from the room and preceded to tell me that we had plenty of pillows and we couldn't get anymore nor could I get an extra blanket . I have never been treated like that at any hotel I have been to. I was completely furious !!!! The only thing good about this hotel was the room size. They painted over the tub and the pain peeled regardless if I took a shower or a bath ... No telling what kind of germs where bidding under the paint peelings from others... More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r278123680-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -726,9 +1146,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r273505445-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -756,6 +1173,39 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r239394091-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>239394091</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Great accommodations</t>
+  </si>
+  <si>
+    <t>Room was clean.  Great location.  Everything you need is right around the corner.  Very reasonable rate.  We will stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r233184126-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>233184126</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>NOT SATISFIED</t>
+  </si>
+  <si>
+    <t>The room was clean but there were mucus in the bathroom wall and sink. Also there were rouches around.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r229410981-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -804,6 +1254,42 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r218421709-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>218421709</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Could Be Better with Better Management</t>
+  </si>
+  <si>
+    <t>Location and price were the main reasons that we stayed here. We didn't get anything special that would make us want to return.  It was difficult to find. Perhaps a sign off the main streets would have helped. But that seems like too much effort for management. Forget about wanting breakfast. The "breakfast nook" is a smelly corner in the tiny check-in area. Whatever they were cooking when we arrived and when we left smelled horrible. I don't think it was food for the guests. I accidentally booked a smoking room and he didn't even pretend to try to find another room for us.  We had a bed, sink, shower, and cable tv. That's it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Location and price were the main reasons that we stayed here. We didn't get anything special that would make us want to return.  It was difficult to find. Perhaps a sign off the main streets would have helped. But that seems like too much effort for management. Forget about wanting breakfast. The "breakfast nook" is a smelly corner in the tiny check-in area. Whatever they were cooking when we arrived and when we left smelled horrible. I don't think it was food for the guests. I accidentally booked a smoking room and he didn't even pretend to try to find another room for us.  We had a bed, sink, shower, and cable tv. That's it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r217785312-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>217785312</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>Wanted a cheaper place to stay when visiting Galveston. Price was great at 83$ a night (but you get what you pay for). Remember to drive through McD's. Upon arriving the management was very rude.  We didn't feel welcome from the second we arrived. The management was very confrontational and questioned everything from why so much toilet paper and petty stuff, so confrontational that I didn't go by in there to speak with him ( my husband did). The room had everything we needed (bed, sink, toilet and tv- it wasn't very clean, there was sand In the tub and dirt on toilet from previous occupant). The swimming pool was green and surrounded by Mosquitos. We tried continental breakfast but were reminded by management that we had to eat in the lobby and not take back to room even though there was only four small tables to eat at- and we had a party of five- so we left empty handed ;(.  I'm glad that we spent minimal time in hotel cause it was so disappointing.  Just rethink value.  I know it's a bit cheaper but we will pay a little extra for better service and cleanliness.  It was in dickinson which was a great location. Close to galveston and kemah.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Wanted a cheaper place to stay when visiting Galveston. Price was great at 83$ a night (but you get what you pay for). Remember to drive through McD's. Upon arriving the management was very rude.  We didn't feel welcome from the second we arrived. The management was very confrontational and questioned everything from why so much toilet paper and petty stuff, so confrontational that I didn't go by in there to speak with him ( my husband did). The room had everything we needed (bed, sink, toilet and tv- it wasn't very clean, there was sand In the tub and dirt on toilet from previous occupant). The swimming pool was green and surrounded by Mosquitos. We tried continental breakfast but were reminded by management that we had to eat in the lobby and not take back to room even though there was only four small tables to eat at- and we had a party of five- so we left empty handed ;(.  I'm glad that we spent minimal time in hotel cause it was so disappointing.  Just rethink value.  I know it's a bit cheaper but we will pay a little extra for better service and cleanliness.  It was in dickinson which was a great location. Close to galveston and kemah.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r217520685-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -846,6 +1332,36 @@
     <t>Clean, Quiet, hard to find entrance but had surrounded by restaurants. pool  3-5 foot deep great for kids.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r201120969-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>201120969</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r199891367-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>199891367</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>Family get-away</t>
+  </si>
+  <si>
+    <t>Hotel was clean and convenient. It out of the city but close enough for us to drive to Houston to attend an event. I had one problem, the continental breakfast offered seem to be design so guest want be able to partake of it. We arrived a bit before 9 am and it was over. I have no idea what was offered in the small area where it was offered. Not even a bread crumb could be seen.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r191057165-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -888,6 +1404,21 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r170125283-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>170125283</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r168778536-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>168778536</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r167862247-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1455,30 @@
     <t>07/09/2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r166203691-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>166203691</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r162414414-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>162414414</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r158535474-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1512,24 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r155554642-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>155554642</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r155085330-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>155085330</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r146181831-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
   </si>
   <si>
@@ -991,6 +1564,45 @@
   </si>
   <si>
     <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r135989916-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>135989916</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>horrible to the point I took pictures</t>
+  </si>
+  <si>
+    <t>My family and I took a mini vacation and wanted to visit Galveston and the Kemah Boardwalk. We checked in and right away we noticed that the room smelled like smoke and the carpet was stringy and coming up in places. After a quick trip to the bathroom we noticed pieces of feces and yellow urine marks on the toilet and floor. We asked for the bathroom to be cleaned and still had yellow urine streaks on the floor and toilet after the person supposedly cleaned. We then noticed what appeared to be candy with hair stuck to it on both beds. My wife then noticed white stains on the carpet and chairs. I went to get a wash cloth to wipe my 10 month olds face after a 5 hour drive from home and noticed that the shower head had black stuff that appeared to be mold, We also noticed hair all over the room, sink, and shower. We spent most of the time on the phone with customer service due to the property manager not concerned at all with the fact that his hotel was disgusting. We was on the property for less than one hour and only so we could find another hotel. In short this place needs to be renovated or just torn down. We finally stayed at the Baymont Hotel in Galveston and it is also owned by the same parent corporation and had a...My family and I took a mini vacation and wanted to visit Galveston and the Kemah Boardwalk. We checked in and right away we noticed that the room smelled like smoke and the carpet was stringy and coming up in places. After a quick trip to the bathroom we noticed pieces of feces and yellow urine marks on the toilet and floor. We asked for the bathroom to be cleaned and still had yellow urine streaks on the floor and toilet after the person supposedly cleaned. We then noticed what appeared to be candy with hair stuck to it on both beds. My wife then noticed white stains on the carpet and chairs. I went to get a wash cloth to wipe my 10 month olds face after a 5 hour drive from home and noticed that the shower head had black stuff that appeared to be mold, We also noticed hair all over the room, sink, and shower. We spent most of the time on the phone with customer service due to the property manager not concerned at all with the fact that his hotel was disgusting. We was on the property for less than one hour and only so we could find another hotel. In short this place needs to be renovated or just torn down. We finally stayed at the Baymont Hotel in Galveston and it is also owned by the same parent corporation and had a wonderful time, once we finally got a clean room. My e-mail is jjtrahan11@yahoo.com if anyone wants to see the pictures of how nasty this place was.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>My family and I took a mini vacation and wanted to visit Galveston and the Kemah Boardwalk. We checked in and right away we noticed that the room smelled like smoke and the carpet was stringy and coming up in places. After a quick trip to the bathroom we noticed pieces of feces and yellow urine marks on the toilet and floor. We asked for the bathroom to be cleaned and still had yellow urine streaks on the floor and toilet after the person supposedly cleaned. We then noticed what appeared to be candy with hair stuck to it on both beds. My wife then noticed white stains on the carpet and chairs. I went to get a wash cloth to wipe my 10 month olds face after a 5 hour drive from home and noticed that the shower head had black stuff that appeared to be mold, We also noticed hair all over the room, sink, and shower. We spent most of the time on the phone with customer service due to the property manager not concerned at all with the fact that his hotel was disgusting. We was on the property for less than one hour and only so we could find another hotel. In short this place needs to be renovated or just torn down. We finally stayed at the Baymont Hotel in Galveston and it is also owned by the same parent corporation and had a...My family and I took a mini vacation and wanted to visit Galveston and the Kemah Boardwalk. We checked in and right away we noticed that the room smelled like smoke and the carpet was stringy and coming up in places. After a quick trip to the bathroom we noticed pieces of feces and yellow urine marks on the toilet and floor. We asked for the bathroom to be cleaned and still had yellow urine streaks on the floor and toilet after the person supposedly cleaned. We then noticed what appeared to be candy with hair stuck to it on both beds. My wife then noticed white stains on the carpet and chairs. I went to get a wash cloth to wipe my 10 month olds face after a 5 hour drive from home and noticed that the shower head had black stuff that appeared to be mold, We also noticed hair all over the room, sink, and shower. We spent most of the time on the phone with customer service due to the property manager not concerned at all with the fact that his hotel was disgusting. We was on the property for less than one hour and only so we could find another hotel. In short this place needs to be renovated or just torn down. We finally stayed at the Baymont Hotel in Galveston and it is also owned by the same parent corporation and had a wonderful time, once we finally got a clean room. My e-mail is jjtrahan11@yahoo.com if anyone wants to see the pictures of how nasty this place was.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r135012162-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>135012162</t>
+  </si>
+  <si>
+    <t>07/21/2012</t>
+  </si>
+  <si>
+    <t>Great Bang for your buck</t>
+  </si>
+  <si>
+    <t>We went to spend the weekend in the Galveston area and booked this hotel online bc of its proximity to the dog track which we love. I know what you are probably thinking...."Oh great, a review from some trashy couple that gambles away all their money at a track." Well, I can assure you that we are anything but your typical coastal track dwellers. On to the hotel. It is a family run operation that the family takes great pride in the service and cleanliness. The owners themselves were turning rooms and were very friendly and thorough I their work. Our room was very clean with plenty of towels and pillows. The AC was already on so the room was nice and cool after being outside for most of the day. Compared to the prices of the hotels on Galveston island, only 15 miles further down the road, you just can't beat this place. Dont let reviews of this place scare you off if they are complaining about the breakfast or some other detail that should t be expected for the economy prices you will find here. You can sleep in a very clean room with a kind sized bed for a very reasonable price. I will stay here next time we come to the track.MoreShow less</t>
+  </si>
+  <si>
+    <t>We went to spend the weekend in the Galveston area and booked this hotel online bc of its proximity to the dog track which we love. I know what you are probably thinking...."Oh great, a review from some trashy couple that gambles away all their money at a track." Well, I can assure you that we are anything but your typical coastal track dwellers. On to the hotel. It is a family run operation that the family takes great pride in the service and cleanliness. The owners themselves were turning rooms and were very friendly and thorough I their work. Our room was very clean with plenty of towels and pillows. The AC was already on so the room was nice and cool after being outside for most of the day. Compared to the prices of the hotels on Galveston island, only 15 miles further down the road, you just can't beat this place. Dont let reviews of this place scare you off if they are complaining about the breakfast or some other detail that should t be expected for the economy prices you will find here. You can sleep in a very clean room with a kind sized bed for a very reasonable price. I will stay here next time we come to the track.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r132916962-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
@@ -1065,6 +1677,39 @@
   </si>
   <si>
     <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r115781402-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>115781402</t>
+  </si>
+  <si>
+    <t>07/25/2011</t>
+  </si>
+  <si>
+    <t>One night only</t>
+  </si>
+  <si>
+    <t>Really off location for a motel, but it is clean.  Everything was nice because everything is new.  Your close to the highway so you can get to most things pretty quick.  There is a grocery store and fast food nearby.  Odd thing is that the motel is behind a gas station.  There is a tall privacy fence so you don't notice it unless your coming or going.  Hotel staff did not speak much, my guess is they live on the property.  All in all, if your only paying 50 bucks or so, it is worth it.  Breakfast is the standard cereal and waffles, no eggs.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r115650156-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>115650156</t>
+  </si>
+  <si>
+    <t>07/22/2011</t>
+  </si>
+  <si>
+    <t>Good value-strange location</t>
+  </si>
+  <si>
+    <t>Booked this motel as we were just passing through.  The building appears new and so everything was nice, except bed covering had pieces of food on it where someone other than my family had eaten on the bed.  We simply pulled bed covering off as we always do.  Small breakfast area (two tables), but that was ok since we were te only ones using it.  Good value if property remains in same condition.  I paid 55 dollars a night.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r76895826-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
@@ -1144,6 +1789,48 @@
   </si>
   <si>
     <t>My boyfriend and I had just left a wedding near the San Luis Pass and it was getting late. Instead of making the long trek back to Houston, we decided to stop midway to get some sleep. Days Inn was right off of the freeway and located conveniently near a Whataburger, so we stopped. The lobby closes at a certain time of night. We booked our evening through a little window, which was kind of creepy. However, when we got into the room, we were pleasantly surprised. It was clean and spacious. We had a large bed, fold-out couch (which was divided from the bedroom with an arched doorway), fridge, and microwave. The bed and pillows were very firm, leaving my body a little sore the next morning. The bathroom was decent and stocked with plenty of towels. The shower curtain had a curved bar to give extra room. It was quiet and very dark while we were sleeping. However, we did get an unexpected wake-up call in the morning, asking if we were going to stay an extra night. It was ten minutes before check-out time (11am)... which made me feel a little as though they were rushing us out of there. We didn't have any breakfast, but I got a glimpse of it on the way out. It wasn't very impressive- a couple of cereals, juice, and coffee. The lobby seems a little worn-down and in need of...My boyfriend and I had just left a wedding near the San Luis Pass and it was getting late. Instead of making the long trek back to Houston, we decided to stop midway to get some sleep. Days Inn was right off of the freeway and located conveniently near a Whataburger, so we stopped. The lobby closes at a certain time of night. We booked our evening through a little window, which was kind of creepy. However, when we got into the room, we were pleasantly surprised. It was clean and spacious. We had a large bed, fold-out couch (which was divided from the bedroom with an arched doorway), fridge, and microwave. The bed and pillows were very firm, leaving my body a little sore the next morning. The bathroom was decent and stocked with plenty of towels. The shower curtain had a curved bar to give extra room. It was quiet and very dark while we were sleeping. However, we did get an unexpected wake-up call in the morning, asking if we were going to stay an extra night. It was ten minutes before check-out time (11am)... which made me feel a little as though they were rushing us out of there. We didn't have any breakfast, but I got a glimpse of it on the way out. It wasn't very impressive- a couple of cereals, juice, and coffee. The lobby seems a little worn-down and in need of some renovation. Overall, it was a decent stay for one evening.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r13794591-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>13794591</t>
+  </si>
+  <si>
+    <t>02/23/2008</t>
+  </si>
+  <si>
+    <t>Only option in Dickinson</t>
+  </si>
+  <si>
+    <t>Overall the customer service was great. Our original room my wife and I was assigned to had approxx 2 inches of old bathwater in the tub as well as the stopper control was ripped off the tub.We reported it to the check in and was immiediatly assinged to another room. Our second room was clean and had no trouble getting towels.We were however awakened the following morning by a physical dispute buy the hotel owner and some guest that were attempting to steal sheets and stuff from the room and the cops ended up showing up but the situation was handled well.The grounds were overall kept clean and is located near several fast food joints"within walking distance" as well as a gas station.The only other problem we encountered was our key cards quit working frequently but management quickly fixed the problem no questions asked.We stayed for 3 nights and was pleased,The matressess could stand to be a little softer but hey it was a good place to crash after a 10 hr drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>Overall the customer service was great. Our original room my wife and I was assigned to had approxx 2 inches of old bathwater in the tub as well as the stopper control was ripped off the tub.We reported it to the check in and was immiediatly assinged to another room. Our second room was clean and had no trouble getting towels.We were however awakened the following morning by a physical dispute buy the hotel owner and some guest that were attempting to steal sheets and stuff from the room and the cops ended up showing up but the situation was handled well.The grounds were overall kept clean and is located near several fast food joints"within walking distance" as well as a gas station.The only other problem we encountered was our key cards quit working frequently but management quickly fixed the problem no questions asked.We stayed for 3 nights and was pleased,The matressess could stand to be a little softer but hey it was a good place to crash after a 10 hr drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55744-d288618-r7303379-Days_Inn_by_Wyndham_Dickinson_TX-Dickinson_Texas.html</t>
+  </si>
+  <si>
+    <t>7303379</t>
+  </si>
+  <si>
+    <t>04/09/2007</t>
+  </si>
+  <si>
+    <t>OK hotel</t>
+  </si>
+  <si>
+    <t>Good price, but nothing special. Beds firm &amp; not soft. Plenty of pillows though - 4 per bed! Everything good &amp; clean, but clock radio on the fritz - time was off. Could not fix - miswired or broken. A/V jacks on TV also busted - no hooking up the DVD player or vid games. Management apologized &amp; I'm sure they would have given us another room or done a wake up call had we asked. We only stayed a night &amp; figured it wasn't worth the hassle. Shower had curved shower bar for extra elbow room. Frige had a whole freezer shelf and an ice tray, unlike most places with only a little metal thing attached to the inside of frige. Microwave with frige. Breakfast was in the office - not much of a lobby. Cereal bars, Mini muffins, 2 kinds dry cereal; OJ, Milk &amp; coffee. No place to sit for breakfast - strictly grab n go. Did have laundry room - didn't use. McDonalds very close by with Playplace for kids - had carnival/carousel theme. Also nearby - some fast food restaurants and a nice seafood place.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>Good price, but nothing special. Beds firm &amp; not soft. Plenty of pillows though - 4 per bed! Everything good &amp; clean, but clock radio on the fritz - time was off. Could not fix - miswired or broken. A/V jacks on TV also busted - no hooking up the DVD player or vid games. Management apologized &amp; I'm sure they would have given us another room or done a wake up call had we asked. We only stayed a night &amp; figured it wasn't worth the hassle. Shower had curved shower bar for extra elbow room. Frige had a whole freezer shelf and an ice tray, unlike most places with only a little metal thing attached to the inside of frige. Microwave with frige. Breakfast was in the office - not much of a lobby. Cereal bars, Mini muffins, 2 kinds dry cereal; OJ, Milk &amp; coffee. No place to sit for breakfast - strictly grab n go. Did have laundry room - didn't use. McDonalds very close by with Playplace for kids - had carnival/carousel theme. Also nearby - some fast food restaurants and a nice seafood place.More</t>
   </si>
 </sst>
 </file>
@@ -1671,28 +2358,32 @@
       <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
@@ -1703,7 +2394,9 @@
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
-      <c r="Y2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1718,7 +2411,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1727,37 +2420,41 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
         <v>53</v>
       </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" t="s"/>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1765,7 +2462,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1781,7 +2478,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1790,39 +2487,45 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +2541,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1847,37 +2550,37 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1899,7 +2602,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1908,37 +2611,37 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>71</v>
       </c>
-      <c r="L6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
       <c r="O6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1946,7 +2649,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -1962,7 +2665,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1971,45 +2674,39 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" t="s">
         <v>77</v>
       </c>
-      <c r="K7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -2025,7 +2722,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2034,44 +2731,40 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2086,7 +2779,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2095,41 +2788,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2137,7 +2828,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -2153,7 +2844,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2162,40 +2853,44 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" t="s">
-        <v>94</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
-      <c r="Y10" t="s">
-        <v>94</v>
-      </c>
+      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2210,7 +2905,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2219,35 +2914,33 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
       <c r="L11" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
         <v>2</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
@@ -2259,7 +2952,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -2275,7 +2968,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2284,34 +2977,34 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>1</v>
@@ -2322,7 +3015,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -2338,7 +3031,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2347,37 +3040,37 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2399,7 +3092,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2408,50 +3101,44 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" t="s">
-        <v>115</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
         <v>106</v>
       </c>
       <c r="O14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
-      <c r="Y14" t="s">
-        <v>115</v>
-      </c>
+      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2466,7 +3153,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2475,37 +3162,37 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
         <v>106</v>
       </c>
       <c r="O15" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
         <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2527,7 +3214,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2536,33 +3223,37 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="K16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" t="s">
+        <v>126</v>
+      </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="O16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -2573,7 +3264,9 @@
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
+      <c r="Y16" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2588,7 +3281,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2597,25 +3290,25 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
         <v>127</v>
       </c>
-      <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>128</v>
-      </c>
       <c r="O17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2629,7 +3322,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18">
@@ -2645,7 +3338,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2654,39 +3347,49 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
@@ -2702,7 +3405,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2711,39 +3414,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K19" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="O19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20">
@@ -2759,7 +3472,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2768,41 +3481,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J20" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
         <v>143</v>
       </c>
-      <c r="L20" t="s">
-        <v>144</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>145</v>
-      </c>
       <c r="O20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2810,7 +3521,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21">
@@ -2826,7 +3537,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2835,35 +3546,31 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K21" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L21" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O21" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="n">
         <v>1</v>
       </c>
@@ -2877,7 +3584,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
@@ -2893,7 +3600,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2902,46 +3609,44 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J22" t="s">
-        <v>154</v>
-      </c>
-      <c r="K22" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" t="s">
-        <v>156</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="O22" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
       <c r="R22" t="n">
         <v>3</v>
       </c>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
-      <c r="Y22" t="s">
-        <v>157</v>
-      </c>
+      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2956,7 +3661,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2965,35 +3670,29 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="O23" t="s">
-        <v>51</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3015,7 +3714,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3024,21 +3723,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J24" t="s">
-        <v>164</v>
-      </c>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
+        <v>165</v>
+      </c>
+      <c r="K24" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" t="s">
+        <v>167</v>
+      </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O24" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3047,10 +3750,10 @@
         <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -3061,7 +3764,9 @@
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
+      <c r="Y24" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -3076,7 +3781,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3085,35 +3790,41 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="O25" t="s">
-        <v>89</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
       <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3121,7 +3832,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26">
@@ -3137,7 +3848,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3146,50 +3857,44 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
-      </c>
-      <c r="K26" t="s">
-        <v>174</v>
-      </c>
-      <c r="L26" t="s">
         <v>175</v>
       </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="O26" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
         <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
-      <c r="Y26" t="s">
-        <v>177</v>
-      </c>
+      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3204,59 +3909,53 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>177</v>
+      </c>
+      <c r="J27" t="s">
         <v>178</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>179</v>
-      </c>
-      <c r="J27" t="s">
-        <v>180</v>
-      </c>
-      <c r="K27" t="s">
-        <v>181</v>
-      </c>
-      <c r="L27" t="s">
-        <v>182</v>
-      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="O27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
-      <c r="Y27" t="s">
-        <v>183</v>
-      </c>
+      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3271,7 +3970,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3280,44 +3979,50 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J28" t="s">
-        <v>186</v>
-      </c>
-      <c r="K28" t="s"/>
-      <c r="L28" t="s"/>
+        <v>181</v>
+      </c>
+      <c r="K28" t="s">
+        <v>182</v>
+      </c>
+      <c r="L28" t="s">
+        <v>183</v>
+      </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="O28" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
+      <c r="Y28" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3332,50 +4037,50 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>185</v>
+      </c>
+      <c r="J29" t="s">
+        <v>186</v>
+      </c>
+      <c r="K29" t="s">
+        <v>187</v>
+      </c>
+      <c r="L29" t="s">
         <v>188</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>189</v>
-      </c>
-      <c r="J29" t="s">
-        <v>190</v>
-      </c>
-      <c r="K29" t="s">
-        <v>191</v>
-      </c>
-      <c r="L29" t="s">
-        <v>192</v>
-      </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="O29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
         <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3383,7 +4088,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30">
@@ -3399,53 +4104,49 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>190</v>
+      </c>
+      <c r="J30" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30" t="s">
+        <v>192</v>
+      </c>
+      <c r="L30" t="s">
+        <v>193</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
         <v>194</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
-        <v>195</v>
-      </c>
-      <c r="J30" t="s">
-        <v>196</v>
-      </c>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>197</v>
-      </c>
       <c r="O30" t="s">
-        <v>51</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>1</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
+      <c r="Y30" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3460,54 +4161,48 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>196</v>
+      </c>
+      <c r="J31" t="s">
+        <v>197</v>
+      </c>
+      <c r="K31" t="s">
         <v>198</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>199</v>
       </c>
-      <c r="J31" t="s">
-        <v>200</v>
-      </c>
-      <c r="K31" t="s">
-        <v>201</v>
-      </c>
-      <c r="L31" t="s">
-        <v>202</v>
-      </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O31" t="s">
-        <v>51</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>1</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32">
@@ -3523,50 +4218,48 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>201</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>202</v>
+      </c>
+      <c r="J32" t="s">
         <v>203</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>204</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>205</v>
       </c>
-      <c r="K32" t="s">
-        <v>206</v>
-      </c>
-      <c r="L32" t="s">
-        <v>207</v>
-      </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="O32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>3</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33">
@@ -3582,48 +4275,58 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>206</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" t="s">
+        <v>208</v>
+      </c>
+      <c r="K33" t="s">
         <v>209</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
         <v>210</v>
       </c>
-      <c r="J33" t="s">
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
         <v>211</v>
       </c>
-      <c r="K33" t="s">
-        <v>212</v>
-      </c>
-      <c r="L33" t="s">
-        <v>213</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s">
-        <v>214</v>
-      </c>
       <c r="O33" t="s">
-        <v>119</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34">
@@ -3639,34 +4342,34 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>212</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>213</v>
+      </c>
+      <c r="J34" t="s">
+        <v>214</v>
+      </c>
+      <c r="K34" t="s">
         <v>215</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>216</v>
       </c>
-      <c r="J34" t="s">
-        <v>217</v>
-      </c>
-      <c r="K34" t="s">
-        <v>218</v>
-      </c>
-      <c r="L34" t="s">
-        <v>219</v>
-      </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="O34" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3680,7 +4383,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35">
@@ -3696,46 +4399,50 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>218</v>
+      </c>
+      <c r="J35" t="s">
+        <v>219</v>
+      </c>
+      <c r="K35" t="s">
+        <v>220</v>
+      </c>
+      <c r="L35" t="s">
         <v>221</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
         <v>222</v>
       </c>
-      <c r="J35" t="s">
-        <v>223</v>
-      </c>
-      <c r="K35" t="s">
-        <v>224</v>
-      </c>
-      <c r="L35" t="s">
-        <v>225</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="s">
-        <v>214</v>
-      </c>
       <c r="O35" t="s">
-        <v>51</v>
-      </c>
-      <c r="P35" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
       <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3743,7 +4450,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36">
@@ -3759,53 +4466,59 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>223</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>224</v>
+      </c>
+      <c r="J36" t="s">
+        <v>225</v>
+      </c>
+      <c r="K36" t="s">
+        <v>226</v>
+      </c>
+      <c r="L36" t="s">
         <v>227</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
         <v>228</v>
       </c>
-      <c r="J36" t="s">
-        <v>229</v>
-      </c>
-      <c r="K36" t="s"/>
-      <c r="L36" t="s"/>
-      <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>214</v>
-      </c>
       <c r="O36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
         <v>5</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
-      <c r="Y36" t="s"/>
+      <c r="Y36" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3820,43 +4533,43 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>229</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
         <v>230</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>231</v>
       </c>
-      <c r="J37" t="s">
-        <v>229</v>
-      </c>
-      <c r="K37" t="s"/>
-      <c r="L37" t="s"/>
+      <c r="K37" t="s">
+        <v>232</v>
+      </c>
+      <c r="L37" t="s">
+        <v>233</v>
+      </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="O37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
       </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>4</v>
@@ -3866,7 +4579,9 @@
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
+      <c r="Y37" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3881,7 +4596,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3890,24 +4605,28 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J38" t="s">
-        <v>234</v>
-      </c>
-      <c r="K38" t="s"/>
-      <c r="L38" t="s"/>
+        <v>237</v>
+      </c>
+      <c r="K38" t="s">
+        <v>238</v>
+      </c>
+      <c r="L38" t="s">
+        <v>239</v>
+      </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="O38" t="s">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
         <v>4</v>
@@ -3920,14 +4639,16 @@
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
-      <c r="Y38" t="s"/>
+      <c r="Y38" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3942,7 +4663,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3951,32 +4672,34 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J39" t="s">
-        <v>239</v>
-      </c>
-      <c r="K39" t="s">
+        <v>243</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
         <v>240</v>
       </c>
-      <c r="L39" t="s">
-        <v>241</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="s">
-        <v>235</v>
-      </c>
       <c r="O39" t="s">
-        <v>51</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
       <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>4</v>
@@ -3986,9 +4709,7 @@
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
-      <c r="Y39" t="s">
-        <v>241</v>
-      </c>
+      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4003,7 +4724,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4012,33 +4733,31 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J40" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O40" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
       </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
@@ -4064,7 +4783,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4073,17 +4792,13 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J41" t="s">
-        <v>248</v>
-      </c>
-      <c r="K41" t="s">
-        <v>249</v>
-      </c>
-      <c r="L41" t="s">
         <v>250</v>
       </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
       <c r="M41" t="n">
         <v>2</v>
       </c>
@@ -4091,32 +4806,30 @@
         <v>251</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
         <v>2</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
-      <c r="Y41" t="s">
-        <v>250</v>
-      </c>
+      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4145,39 +4858,39 @@
       <c r="J42" t="s">
         <v>254</v>
       </c>
-      <c r="K42" t="s"/>
-      <c r="L42" t="s"/>
+      <c r="K42" t="s">
+        <v>255</v>
+      </c>
+      <c r="L42" t="s">
+        <v>256</v>
+      </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O42" t="s">
-        <v>51</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
         <v>3</v>
       </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
+      <c r="Y42" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4192,7 +4905,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4201,33 +4914,33 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J43" t="s">
-        <v>258</v>
-      </c>
-      <c r="K43" t="s">
         <v>259</v>
       </c>
-      <c r="L43" t="s">
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
         <v>260</v>
       </c>
-      <c r="M43" t="n">
-        <v>2</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>261</v>
       </c>
-      <c r="O43" t="s">
-        <v>51</v>
-      </c>
       <c r="P43" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
@@ -4238,9 +4951,7 @@
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
-      <c r="Y43" t="s">
-        <v>260</v>
-      </c>
+      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4269,39 +4980,35 @@
       <c r="J44" t="s">
         <v>264</v>
       </c>
-      <c r="K44" t="s"/>
-      <c r="L44" t="s"/>
+      <c r="K44" t="s">
+        <v>265</v>
+      </c>
+      <c r="L44" t="s">
+        <v>266</v>
+      </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
+        <v>267</v>
+      </c>
+      <c r="O44" t="s">
         <v>261</v>
       </c>
-      <c r="O44" t="s">
-        <v>51</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>4</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
+      <c r="Y44" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4316,7 +5023,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4325,37 +5032,41 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J45" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K45" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L45" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="O45" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4363,7 +5074,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46">
@@ -4379,7 +5090,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4388,41 +5099,41 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="J46" t="s">
+        <v>277</v>
+      </c>
+      <c r="K46" t="s">
+        <v>278</v>
+      </c>
+      <c r="L46" t="s">
+        <v>279</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
         <v>273</v>
       </c>
-      <c r="K46" t="s">
-        <v>274</v>
-      </c>
-      <c r="L46" t="s">
-        <v>275</v>
-      </c>
-      <c r="M46" t="n">
-        <v>3</v>
-      </c>
-      <c r="N46" t="s">
-        <v>261</v>
-      </c>
       <c r="O46" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4430,7 +5141,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47">
@@ -4446,7 +5157,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4455,10 +5166,10 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="J47" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s"/>
@@ -4466,26 +5177,26 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="O47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4507,7 +5218,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4516,41 +5227,37 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="J48" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K48" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L48" t="s">
+        <v>289</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
         <v>284</v>
       </c>
-      <c r="M48" t="n">
-        <v>5</v>
-      </c>
-      <c r="N48" t="s">
-        <v>285</v>
-      </c>
       <c r="O48" t="s">
-        <v>236</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4558,7 +5265,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49">
@@ -4574,7 +5281,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4583,44 +5290,50 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J49" t="s">
-        <v>288</v>
-      </c>
-      <c r="K49" t="s"/>
-      <c r="L49" t="s"/>
+        <v>292</v>
+      </c>
+      <c r="K49" t="s">
+        <v>293</v>
+      </c>
+      <c r="L49" t="s">
+        <v>294</v>
+      </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="O49" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
+      <c r="Y49" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4635,7 +5348,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4644,41 +5357,41 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="J50" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="K50" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="L50" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="O50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
         <v>3</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4686,7 +5399,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51">
@@ -4702,55 +5415,53 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
+        <v>301</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>302</v>
+      </c>
+      <c r="J51" t="s">
+        <v>303</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
         <v>295</v>
       </c>
-      <c r="G51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I51" t="s">
-        <v>296</v>
-      </c>
-      <c r="J51" t="s">
-        <v>292</v>
-      </c>
-      <c r="K51" t="s">
-        <v>297</v>
-      </c>
-      <c r="L51" t="s">
-        <v>298</v>
-      </c>
-      <c r="M51" t="n">
-        <v>5</v>
-      </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
       <c r="P51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
-      <c r="Y51" t="s">
-        <v>298</v>
-      </c>
+      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4765,7 +5476,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -4774,44 +5485,46 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="J52" t="s">
-        <v>301</v>
-      </c>
-      <c r="K52" t="s"/>
-      <c r="L52" t="s"/>
+        <v>306</v>
+      </c>
+      <c r="K52" t="s">
+        <v>307</v>
+      </c>
+      <c r="L52" t="s">
+        <v>308</v>
+      </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="O52" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
       <c r="S52" t="n">
         <v>1</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
+      <c r="Y52" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4826,7 +5539,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -4835,44 +5548,50 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="J53" t="s">
-        <v>304</v>
-      </c>
-      <c r="K53" t="s"/>
-      <c r="L53" t="s"/>
+        <v>311</v>
+      </c>
+      <c r="K53" t="s">
+        <v>312</v>
+      </c>
+      <c r="L53" t="s">
+        <v>313</v>
+      </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="O53" t="s">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="P53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
+      <c r="Y53" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4887,7 +5606,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -4896,37 +5615,37 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="J54" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="O54" t="s">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
         <v>5</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -4948,7 +5667,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -4957,42 +5676,42 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="J55" t="s">
-        <v>311</v>
-      </c>
-      <c r="K55" t="s"/>
-      <c r="L55" t="s"/>
+        <v>321</v>
+      </c>
+      <c r="K55" t="s">
+        <v>322</v>
+      </c>
+      <c r="L55" t="s">
+        <v>323</v>
+      </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O55" t="s">
-        <v>236</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
-      <c r="R55" t="n">
-        <v>4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
-      <c r="Y55" t="s"/>
+      <c r="Y55" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5007,7 +5726,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5016,49 +5735,39 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="J56" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="K56" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="L56" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="O56" t="s">
-        <v>51</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1</v>
-      </c>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>1</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57">
@@ -5074,7 +5783,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5083,44 +5792,40 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="J57" t="s">
-        <v>321</v>
-      </c>
-      <c r="K57" t="s"/>
-      <c r="L57" t="s"/>
+        <v>332</v>
+      </c>
+      <c r="K57" t="s">
+        <v>333</v>
+      </c>
+      <c r="L57" t="s">
+        <v>334</v>
+      </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="O57" t="s">
-        <v>57</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>3</v>
-      </c>
-      <c r="R57" t="n">
-        <v>4</v>
-      </c>
-      <c r="S57" t="n">
-        <v>4</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>4</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
+      <c r="Y57" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5135,7 +5840,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5144,34 +5849,50 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="J58" t="s">
-        <v>324</v>
-      </c>
-      <c r="K58" t="s"/>
-      <c r="L58" t="s"/>
+        <v>338</v>
+      </c>
+      <c r="K58" t="s">
+        <v>339</v>
+      </c>
+      <c r="L58" t="s">
+        <v>340</v>
+      </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="O58" t="s">
-        <v>119</v>
-      </c>
-      <c r="P58" t="s"/>
-      <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
-      <c r="S58" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
       <c r="T58" t="s"/>
-      <c r="U58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
+      <c r="Y58" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5186,7 +5907,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5195,41 +5916,41 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="J59" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K59" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="L59" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="O59" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -5237,7 +5958,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60">
@@ -5253,7 +5974,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5262,41 +5983,37 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="J60" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="K60" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="L60" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="O60" t="s">
-        <v>57</v>
-      </c>
-      <c r="P60" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
       <c r="Q60" t="n">
-        <v>3</v>
-      </c>
-      <c r="R60" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R60" t="s"/>
       <c r="S60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -5304,7 +6021,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61">
@@ -5320,7 +6037,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5329,46 +6046,44 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="J61" t="s">
-        <v>341</v>
-      </c>
-      <c r="K61" t="s">
-        <v>342</v>
-      </c>
-      <c r="L61" t="s">
-        <v>343</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="O61" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="P61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>3</v>
-      </c>
-      <c r="S61" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
       <c r="T61" t="s"/>
-      <c r="U61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
-      <c r="Y61" t="s">
-        <v>343</v>
-      </c>
+      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5383,7 +6098,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5392,28 +6107,24 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="J62" t="s">
-        <v>347</v>
-      </c>
-      <c r="K62" t="s">
-        <v>348</v>
-      </c>
-      <c r="L62" t="s">
-        <v>349</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s"/>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="O62" t="s">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="P62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q62" t="n">
         <v>4</v>
@@ -5426,16 +6137,14 @@
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
-      <c r="Y62" t="s">
-        <v>351</v>
-      </c>
+      <c r="Y62" t="s"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5450,7 +6159,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5459,49 +6168,39 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="J63" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K63" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="L63" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="O63" t="s">
-        <v>51</v>
-      </c>
-      <c r="P63" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>4</v>
-      </c>
-      <c r="R63" t="n">
-        <v>4</v>
-      </c>
-      <c r="S63" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>5</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64">
@@ -5517,7 +6216,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -5526,25 +6225,25 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="J64" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K64" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="L64" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="O64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -5556,17 +6255,2860 @@
         <v>3</v>
       </c>
       <c r="S64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>365</v>
+        <v>371</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>372</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>373</v>
+      </c>
+      <c r="J65" t="s">
+        <v>374</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>375</v>
+      </c>
+      <c r="O65" t="s">
+        <v>261</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>376</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>377</v>
+      </c>
+      <c r="J66" t="s">
+        <v>378</v>
+      </c>
+      <c r="K66" t="s">
+        <v>379</v>
+      </c>
+      <c r="L66" t="s">
+        <v>380</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>375</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>381</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>382</v>
+      </c>
+      <c r="J67" t="s">
+        <v>383</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>384</v>
+      </c>
+      <c r="O67" t="s">
+        <v>90</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>385</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>386</v>
+      </c>
+      <c r="J68" t="s">
+        <v>387</v>
+      </c>
+      <c r="K68" t="s">
+        <v>388</v>
+      </c>
+      <c r="L68" t="s">
+        <v>389</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>384</v>
+      </c>
+      <c r="O68" t="s">
+        <v>90</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>390</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>391</v>
+      </c>
+      <c r="J69" t="s">
+        <v>392</v>
+      </c>
+      <c r="K69" t="s">
+        <v>393</v>
+      </c>
+      <c r="L69" t="s">
+        <v>394</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>395</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>396</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>397</v>
+      </c>
+      <c r="J70" t="s">
+        <v>398</v>
+      </c>
+      <c r="K70" t="s">
+        <v>399</v>
+      </c>
+      <c r="L70" t="s">
+        <v>400</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>401</v>
+      </c>
+      <c r="O70" t="s">
+        <v>90</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>402</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>403</v>
+      </c>
+      <c r="J71" t="s">
+        <v>404</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>405</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>406</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>407</v>
+      </c>
+      <c r="J72" t="s">
+        <v>408</v>
+      </c>
+      <c r="K72" t="s">
+        <v>409</v>
+      </c>
+      <c r="L72" t="s">
+        <v>410</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>411</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>412</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>413</v>
+      </c>
+      <c r="J73" t="s">
+        <v>414</v>
+      </c>
+      <c r="K73" t="s">
+        <v>415</v>
+      </c>
+      <c r="L73" t="s">
+        <v>416</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>411</v>
+      </c>
+      <c r="O73" t="s">
+        <v>90</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>418</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>419</v>
+      </c>
+      <c r="J74" t="s">
+        <v>420</v>
+      </c>
+      <c r="K74" t="s">
+        <v>421</v>
+      </c>
+      <c r="L74" t="s">
+        <v>422</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>424</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>425</v>
+      </c>
+      <c r="J75" t="s">
+        <v>426</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>411</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>427</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>428</v>
+      </c>
+      <c r="J76" t="s">
+        <v>429</v>
+      </c>
+      <c r="K76" t="s">
+        <v>430</v>
+      </c>
+      <c r="L76" t="s">
+        <v>431</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>411</v>
+      </c>
+      <c r="O76" t="s">
+        <v>90</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>433</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>434</v>
+      </c>
+      <c r="J77" t="s">
+        <v>435</v>
+      </c>
+      <c r="K77" t="s">
+        <v>436</v>
+      </c>
+      <c r="L77" t="s">
+        <v>437</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>411</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>438</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>439</v>
+      </c>
+      <c r="J78" t="s">
+        <v>440</v>
+      </c>
+      <c r="K78" t="s"/>
+      <c r="L78" t="s"/>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>441</v>
+      </c>
+      <c r="O78" t="s">
+        <v>144</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>442</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>443</v>
+      </c>
+      <c r="J79" t="s">
+        <v>444</v>
+      </c>
+      <c r="K79" t="s">
+        <v>445</v>
+      </c>
+      <c r="L79" t="s">
+        <v>446</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>447</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>448</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>449</v>
+      </c>
+      <c r="J80" t="s">
+        <v>450</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>451</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>452</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>453</v>
+      </c>
+      <c r="J81" t="s">
+        <v>454</v>
+      </c>
+      <c r="K81" t="s">
+        <v>455</v>
+      </c>
+      <c r="L81" t="s">
+        <v>456</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>457</v>
+      </c>
+      <c r="O81" t="s">
+        <v>261</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>458</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>459</v>
+      </c>
+      <c r="J82" t="s">
+        <v>460</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>461</v>
+      </c>
+      <c r="O82" t="s">
+        <v>90</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>462</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>463</v>
+      </c>
+      <c r="J83" t="s">
+        <v>460</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s">
+        <v>148</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>461</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>464</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>465</v>
+      </c>
+      <c r="J84" t="s">
+        <v>466</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>461</v>
+      </c>
+      <c r="O84" t="s">
+        <v>90</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>467</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>468</v>
+      </c>
+      <c r="J85" t="s">
+        <v>469</v>
+      </c>
+      <c r="K85" t="s">
+        <v>470</v>
+      </c>
+      <c r="L85" t="s">
+        <v>471</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>461</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>472</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>473</v>
+      </c>
+      <c r="J86" t="s">
+        <v>469</v>
+      </c>
+      <c r="K86" t="s">
+        <v>474</v>
+      </c>
+      <c r="L86" t="s">
+        <v>475</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>476</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>477</v>
+      </c>
+      <c r="J87" t="s">
+        <v>478</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>461</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>479</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>480</v>
+      </c>
+      <c r="J88" t="s">
+        <v>481</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s"/>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>482</v>
+      </c>
+      <c r="O88" t="s">
+        <v>90</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>483</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>484</v>
+      </c>
+      <c r="J89" t="s">
+        <v>485</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>486</v>
+      </c>
+      <c r="O89" t="s">
+        <v>90</v>
+      </c>
+      <c r="P89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>487</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>488</v>
+      </c>
+      <c r="J90" t="s">
+        <v>489</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s"/>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>490</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>491</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>492</v>
+      </c>
+      <c r="J91" t="s">
+        <v>493</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>490</v>
+      </c>
+      <c r="O91" t="s">
+        <v>261</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>494</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>495</v>
+      </c>
+      <c r="J92" t="s">
+        <v>496</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>497</v>
+      </c>
+      <c r="O92" t="s">
+        <v>261</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>498</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>499</v>
+      </c>
+      <c r="J93" t="s">
+        <v>500</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>497</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>501</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>502</v>
+      </c>
+      <c r="J94" t="s">
+        <v>503</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>497</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>504</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>505</v>
+      </c>
+      <c r="J95" t="s">
+        <v>506</v>
+      </c>
+      <c r="K95" t="s">
+        <v>507</v>
+      </c>
+      <c r="L95" t="s">
+        <v>508</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>509</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>510</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>511</v>
+      </c>
+      <c r="J96" t="s">
+        <v>512</v>
+      </c>
+      <c r="K96" t="s"/>
+      <c r="L96" t="s"/>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>509</v>
+      </c>
+      <c r="O96" t="s">
+        <v>77</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>513</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>514</v>
+      </c>
+      <c r="J97" t="s">
+        <v>515</v>
+      </c>
+      <c r="K97" t="s"/>
+      <c r="L97" t="s"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>509</v>
+      </c>
+      <c r="O97" t="s">
+        <v>144</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>516</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>517</v>
+      </c>
+      <c r="J98" t="s">
+        <v>518</v>
+      </c>
+      <c r="K98" t="s">
+        <v>519</v>
+      </c>
+      <c r="L98" t="s">
+        <v>520</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>521</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>1</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>523</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>524</v>
+      </c>
+      <c r="J99" t="s">
+        <v>525</v>
+      </c>
+      <c r="K99" t="s">
+        <v>526</v>
+      </c>
+      <c r="L99" t="s">
+        <v>527</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>529</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>530</v>
+      </c>
+      <c r="J100" t="s">
+        <v>531</v>
+      </c>
+      <c r="K100" t="s">
+        <v>532</v>
+      </c>
+      <c r="L100" t="s">
+        <v>533</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>534</v>
+      </c>
+      <c r="O100" t="s">
+        <v>144</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>536</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>537</v>
+      </c>
+      <c r="J101" t="s">
+        <v>538</v>
+      </c>
+      <c r="K101" t="s">
+        <v>539</v>
+      </c>
+      <c r="L101" t="s">
+        <v>540</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>541</v>
+      </c>
+      <c r="O101" t="s">
+        <v>77</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>543</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>544</v>
+      </c>
+      <c r="J102" t="s">
+        <v>545</v>
+      </c>
+      <c r="K102" t="s">
+        <v>546</v>
+      </c>
+      <c r="L102" t="s">
+        <v>547</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="s">
+        <v>548</v>
+      </c>
+      <c r="O102" t="s">
+        <v>261</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>549</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>550</v>
+      </c>
+      <c r="J103" t="s">
+        <v>551</v>
+      </c>
+      <c r="K103" t="s">
+        <v>552</v>
+      </c>
+      <c r="L103" t="s">
+        <v>553</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>554</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>555</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>556</v>
+      </c>
+      <c r="J104" t="s">
+        <v>557</v>
+      </c>
+      <c r="K104" t="s">
+        <v>558</v>
+      </c>
+      <c r="L104" t="s">
+        <v>559</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>560</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>561</v>
+      </c>
+      <c r="J105" t="s">
+        <v>562</v>
+      </c>
+      <c r="K105" t="s">
+        <v>563</v>
+      </c>
+      <c r="L105" t="s">
+        <v>564</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>565</v>
+      </c>
+      <c r="O105" t="s">
+        <v>261</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>2</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>567</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>568</v>
+      </c>
+      <c r="J106" t="s">
+        <v>569</v>
+      </c>
+      <c r="K106" t="s">
+        <v>570</v>
+      </c>
+      <c r="L106" t="s">
+        <v>571</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>572</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>574</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>575</v>
+      </c>
+      <c r="J107" t="s">
+        <v>576</v>
+      </c>
+      <c r="K107" t="s">
+        <v>577</v>
+      </c>
+      <c r="L107" t="s">
+        <v>578</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>579</v>
+      </c>
+      <c r="O107" t="s">
+        <v>90</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>581</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>582</v>
+      </c>
+      <c r="J108" t="s">
+        <v>583</v>
+      </c>
+      <c r="K108" t="s">
+        <v>584</v>
+      </c>
+      <c r="L108" t="s">
+        <v>585</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2</v>
+      </c>
+      <c r="N108" t="s">
+        <v>586</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>2</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="n">
+        <v>2</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>52032</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>588</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>589</v>
+      </c>
+      <c r="J109" t="s">
+        <v>590</v>
+      </c>
+      <c r="K109" t="s">
+        <v>591</v>
+      </c>
+      <c r="L109" t="s">
+        <v>592</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s">
+        <v>593</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>2</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="s"/>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
